--- a/BackTest/2020-01-25 BackTest ADA.xlsx
+++ b/BackTest/2020-01-25 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50.2</v>
+        <v>50.19</v>
       </c>
       <c r="C2" t="n">
-        <v>50.03</v>
+        <v>50.19</v>
       </c>
       <c r="D2" t="n">
-        <v>50.2</v>
+        <v>50.19</v>
       </c>
       <c r="E2" t="n">
-        <v>50.03</v>
+        <v>50.19</v>
       </c>
       <c r="F2" t="n">
-        <v>3110.2121</v>
+        <v>2660.3198</v>
       </c>
       <c r="G2" t="n">
-        <v>49.62650000000004</v>
+        <v>49.62800000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50.16</v>
+        <v>50.2</v>
       </c>
       <c r="C3" t="n">
-        <v>50.25</v>
+        <v>50.03</v>
       </c>
       <c r="D3" t="n">
-        <v>50.25</v>
+        <v>50.2</v>
       </c>
       <c r="E3" t="n">
-        <v>50.16</v>
+        <v>50.03</v>
       </c>
       <c r="F3" t="n">
-        <v>1984.0988</v>
+        <v>3110.2121</v>
       </c>
       <c r="G3" t="n">
-        <v>49.6286666666667</v>
+        <v>49.62650000000004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50.39</v>
+        <v>50.16</v>
       </c>
       <c r="C4" t="n">
-        <v>50.39</v>
+        <v>50.25</v>
       </c>
       <c r="D4" t="n">
-        <v>50.39</v>
+        <v>50.25</v>
       </c>
       <c r="E4" t="n">
-        <v>50.39</v>
+        <v>50.16</v>
       </c>
       <c r="F4" t="n">
-        <v>204.7599</v>
+        <v>1984.0988</v>
       </c>
       <c r="G4" t="n">
-        <v>49.63500000000003</v>
+        <v>49.6286666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50.2</v>
+        <v>50.39</v>
       </c>
       <c r="C5" t="n">
-        <v>50.2</v>
+        <v>50.39</v>
       </c>
       <c r="D5" t="n">
-        <v>50.2</v>
+        <v>50.39</v>
       </c>
       <c r="E5" t="n">
-        <v>50.2</v>
+        <v>50.39</v>
       </c>
       <c r="F5" t="n">
-        <v>13.9443</v>
+        <v>204.7599</v>
       </c>
       <c r="G5" t="n">
-        <v>49.63700000000003</v>
+        <v>49.63500000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50.46</v>
+        <v>50.2</v>
       </c>
       <c r="C6" t="n">
-        <v>50.46</v>
+        <v>50.2</v>
       </c>
       <c r="D6" t="n">
-        <v>50.46</v>
+        <v>50.2</v>
       </c>
       <c r="E6" t="n">
-        <v>50.46</v>
+        <v>50.2</v>
       </c>
       <c r="F6" t="n">
-        <v>147.894</v>
+        <v>13.9443</v>
       </c>
       <c r="G6" t="n">
-        <v>49.64450000000002</v>
+        <v>49.63700000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50.51</v>
+        <v>50.46</v>
       </c>
       <c r="C7" t="n">
-        <v>50.51</v>
+        <v>50.46</v>
       </c>
       <c r="D7" t="n">
-        <v>50.51</v>
+        <v>50.46</v>
       </c>
       <c r="E7" t="n">
-        <v>50.51</v>
+        <v>50.46</v>
       </c>
       <c r="F7" t="n">
-        <v>5924.6064</v>
+        <v>147.894</v>
       </c>
       <c r="G7" t="n">
-        <v>49.65333333333336</v>
+        <v>49.64450000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.32</v>
+        <v>50.51</v>
       </c>
       <c r="C8" t="n">
-        <v>50.32</v>
+        <v>50.51</v>
       </c>
       <c r="D8" t="n">
-        <v>50.32</v>
+        <v>50.51</v>
       </c>
       <c r="E8" t="n">
-        <v>50.32</v>
+        <v>50.51</v>
       </c>
       <c r="F8" t="n">
-        <v>12351.9542</v>
+        <v>5924.6064</v>
       </c>
       <c r="G8" t="n">
-        <v>49.65616666666669</v>
+        <v>49.65333333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.21</v>
+        <v>50.32</v>
       </c>
       <c r="C9" t="n">
-        <v>50.21</v>
+        <v>50.32</v>
       </c>
       <c r="D9" t="n">
-        <v>50.21</v>
+        <v>50.32</v>
       </c>
       <c r="E9" t="n">
-        <v>50.21</v>
+        <v>50.32</v>
       </c>
       <c r="F9" t="n">
-        <v>9781.549300000001</v>
+        <v>12351.9542</v>
       </c>
       <c r="G9" t="n">
-        <v>49.65750000000003</v>
+        <v>49.65616666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.34</v>
+        <v>50.21</v>
       </c>
       <c r="C10" t="n">
-        <v>50.34</v>
+        <v>50.21</v>
       </c>
       <c r="D10" t="n">
-        <v>50.34</v>
+        <v>50.21</v>
       </c>
       <c r="E10" t="n">
-        <v>50.34</v>
+        <v>50.21</v>
       </c>
       <c r="F10" t="n">
-        <v>297.5</v>
+        <v>9781.549300000001</v>
       </c>
       <c r="G10" t="n">
-        <v>49.66066666666669</v>
+        <v>49.65750000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>50.34</v>
       </c>
       <c r="F11" t="n">
-        <v>49.5666</v>
+        <v>297.5</v>
       </c>
       <c r="G11" t="n">
-        <v>49.6666666666667</v>
+        <v>49.66066666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>50.34</v>
       </c>
       <c r="F12" t="n">
-        <v>9.956</v>
+        <v>49.5666</v>
       </c>
       <c r="G12" t="n">
-        <v>49.6736666666667</v>
+        <v>49.6666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>50.21</v>
+        <v>50.34</v>
       </c>
       <c r="C13" t="n">
-        <v>50.03</v>
+        <v>50.34</v>
       </c>
       <c r="D13" t="n">
-        <v>50.21</v>
+        <v>50.34</v>
       </c>
       <c r="E13" t="n">
-        <v>50.03</v>
+        <v>50.34</v>
       </c>
       <c r="F13" t="n">
-        <v>4686.2983</v>
+        <v>9.956</v>
       </c>
       <c r="G13" t="n">
-        <v>49.67566666666671</v>
+        <v>49.6736666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="C14" t="n">
         <v>50.03</v>
       </c>
-      <c r="C14" t="n">
-        <v>50.25</v>
-      </c>
       <c r="D14" t="n">
-        <v>50.25</v>
+        <v>50.21</v>
       </c>
       <c r="E14" t="n">
         <v>50.03</v>
       </c>
       <c r="F14" t="n">
-        <v>2367.3863</v>
+        <v>4686.2983</v>
       </c>
       <c r="G14" t="n">
-        <v>49.68133333333337</v>
+        <v>49.67566666666671</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50.11</v>
+        <v>50.03</v>
       </c>
       <c r="C15" t="n">
-        <v>50.13</v>
+        <v>50.25</v>
       </c>
       <c r="D15" t="n">
-        <v>50.13</v>
+        <v>50.25</v>
       </c>
       <c r="E15" t="n">
-        <v>50.1</v>
+        <v>50.03</v>
       </c>
       <c r="F15" t="n">
-        <v>20775.08471137</v>
+        <v>2367.3863</v>
       </c>
       <c r="G15" t="n">
-        <v>49.68166666666671</v>
+        <v>49.68133333333337</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.99</v>
+        <v>50.11</v>
       </c>
       <c r="C16" t="n">
-        <v>49.99</v>
+        <v>50.13</v>
       </c>
       <c r="D16" t="n">
-        <v>49.99</v>
+        <v>50.13</v>
       </c>
       <c r="E16" t="n">
-        <v>49.99</v>
+        <v>50.1</v>
       </c>
       <c r="F16" t="n">
-        <v>1940</v>
+        <v>20775.08471137</v>
       </c>
       <c r="G16" t="n">
-        <v>49.6841666666667</v>
+        <v>49.68166666666671</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>49.99</v>
       </c>
       <c r="C17" t="n">
-        <v>50.22</v>
+        <v>49.99</v>
       </c>
       <c r="D17" t="n">
-        <v>50.22</v>
+        <v>49.99</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>49.99</v>
       </c>
       <c r="F17" t="n">
-        <v>165291.0963</v>
+        <v>1940</v>
       </c>
       <c r="G17" t="n">
-        <v>49.68766666666669</v>
+        <v>49.6841666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>50.16</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>50.16</v>
+        <v>50.22</v>
       </c>
       <c r="D18" t="n">
-        <v>50.16</v>
+        <v>50.22</v>
       </c>
       <c r="E18" t="n">
-        <v>50.16</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>1136.8713</v>
+        <v>165291.0963</v>
       </c>
       <c r="G18" t="n">
-        <v>49.69366666666669</v>
+        <v>49.68766666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>50.16</v>
       </c>
       <c r="C19" t="n">
-        <v>50.02</v>
+        <v>50.16</v>
       </c>
       <c r="D19" t="n">
         <v>50.16</v>
       </c>
       <c r="E19" t="n">
-        <v>50.02</v>
+        <v>50.16</v>
       </c>
       <c r="F19" t="n">
-        <v>20353.396</v>
+        <v>1136.8713</v>
       </c>
       <c r="G19" t="n">
-        <v>49.69616666666669</v>
+        <v>49.69366666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>49.84</v>
+        <v>50.16</v>
       </c>
       <c r="C20" t="n">
-        <v>49.84</v>
+        <v>50.02</v>
       </c>
       <c r="D20" t="n">
-        <v>49.84</v>
+        <v>50.16</v>
       </c>
       <c r="E20" t="n">
-        <v>49.84</v>
+        <v>50.02</v>
       </c>
       <c r="F20" t="n">
-        <v>198.1421</v>
+        <v>20353.396</v>
       </c>
       <c r="G20" t="n">
-        <v>49.69900000000003</v>
+        <v>49.69616666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.87</v>
+        <v>49.84</v>
       </c>
       <c r="C21" t="n">
-        <v>49.74</v>
+        <v>49.84</v>
       </c>
       <c r="D21" t="n">
-        <v>49.87</v>
+        <v>49.84</v>
       </c>
       <c r="E21" t="n">
-        <v>49.74</v>
+        <v>49.84</v>
       </c>
       <c r="F21" t="n">
-        <v>150000</v>
+        <v>198.1421</v>
       </c>
       <c r="G21" t="n">
-        <v>49.70183333333335</v>
+        <v>49.69900000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.91</v>
+        <v>49.87</v>
       </c>
       <c r="C22" t="n">
-        <v>49.91</v>
+        <v>49.74</v>
       </c>
       <c r="D22" t="n">
-        <v>49.91</v>
+        <v>49.87</v>
       </c>
       <c r="E22" t="n">
-        <v>49.91</v>
+        <v>49.74</v>
       </c>
       <c r="F22" t="n">
-        <v>23.4224</v>
+        <v>150000</v>
       </c>
       <c r="G22" t="n">
-        <v>49.70850000000001</v>
+        <v>49.70183333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.79</v>
+        <v>49.91</v>
       </c>
       <c r="C23" t="n">
-        <v>49.69</v>
+        <v>49.91</v>
       </c>
       <c r="D23" t="n">
-        <v>49.79</v>
+        <v>49.91</v>
       </c>
       <c r="E23" t="n">
-        <v>49.69</v>
+        <v>49.91</v>
       </c>
       <c r="F23" t="n">
-        <v>3956.8818</v>
+        <v>23.4224</v>
       </c>
       <c r="G23" t="n">
-        <v>49.71133333333334</v>
+        <v>49.70850000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.63</v>
+        <v>49.79</v>
       </c>
       <c r="C24" t="n">
-        <v>49.63</v>
+        <v>49.69</v>
       </c>
       <c r="D24" t="n">
-        <v>49.63</v>
+        <v>49.79</v>
       </c>
       <c r="E24" t="n">
-        <v>49.63</v>
+        <v>49.69</v>
       </c>
       <c r="F24" t="n">
-        <v>4029.8207</v>
+        <v>3956.8818</v>
       </c>
       <c r="G24" t="n">
-        <v>49.71316666666668</v>
+        <v>49.71133333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.78</v>
+        <v>49.63</v>
       </c>
       <c r="C25" t="n">
-        <v>49.78</v>
+        <v>49.63</v>
       </c>
       <c r="D25" t="n">
-        <v>49.78</v>
+        <v>49.63</v>
       </c>
       <c r="E25" t="n">
-        <v>49.78</v>
+        <v>49.63</v>
       </c>
       <c r="F25" t="n">
-        <v>82.7671</v>
+        <v>4029.8207</v>
       </c>
       <c r="G25" t="n">
-        <v>49.71900000000002</v>
+        <v>49.71316666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>49.78</v>
       </c>
       <c r="F26" t="n">
-        <v>5001.5004</v>
+        <v>82.7671</v>
       </c>
       <c r="G26" t="n">
-        <v>49.72366666666669</v>
+        <v>49.71900000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>49.78</v>
       </c>
       <c r="C27" t="n">
-        <v>49.94</v>
+        <v>49.78</v>
       </c>
       <c r="D27" t="n">
-        <v>49.95</v>
+        <v>49.78</v>
       </c>
       <c r="E27" t="n">
         <v>49.78</v>
       </c>
       <c r="F27" t="n">
-        <v>35989.53966646</v>
+        <v>5001.5004</v>
       </c>
       <c r="G27" t="n">
-        <v>49.73600000000003</v>
+        <v>49.72366666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.95</v>
+        <v>49.78</v>
       </c>
       <c r="C28" t="n">
         <v>49.94</v>
       </c>
       <c r="D28" t="n">
-        <v>50.02</v>
+        <v>49.95</v>
       </c>
       <c r="E28" t="n">
-        <v>49.94</v>
+        <v>49.78</v>
       </c>
       <c r="F28" t="n">
-        <v>29214.6928</v>
+        <v>35989.53966646</v>
       </c>
       <c r="G28" t="n">
-        <v>49.74833333333336</v>
+        <v>49.73600000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="C29" t="n">
         <v>49.94</v>
       </c>
-      <c r="C29" t="n">
-        <v>50.03</v>
-      </c>
       <c r="D29" t="n">
-        <v>50.03</v>
+        <v>50.02</v>
       </c>
       <c r="E29" t="n">
         <v>49.94</v>
       </c>
       <c r="F29" t="n">
-        <v>11250.0546</v>
+        <v>29214.6928</v>
       </c>
       <c r="G29" t="n">
-        <v>49.76050000000003</v>
+        <v>49.74833333333336</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>49.94</v>
       </c>
       <c r="C30" t="n">
-        <v>49.94</v>
+        <v>50.03</v>
       </c>
       <c r="D30" t="n">
         <v>50.03</v>
@@ -1425,10 +1425,10 @@
         <v>49.94</v>
       </c>
       <c r="F30" t="n">
-        <v>30133.3505</v>
+        <v>11250.0546</v>
       </c>
       <c r="G30" t="n">
-        <v>49.7681666666667</v>
+        <v>49.76050000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50.03</v>
+        <v>49.94</v>
       </c>
       <c r="C31" t="n">
-        <v>50.03</v>
+        <v>49.94</v>
       </c>
       <c r="D31" t="n">
         <v>50.03</v>
       </c>
       <c r="E31" t="n">
-        <v>50.03</v>
+        <v>49.94</v>
       </c>
       <c r="F31" t="n">
-        <v>30.7442</v>
+        <v>30133.3505</v>
       </c>
       <c r="G31" t="n">
-        <v>49.77733333333337</v>
+        <v>49.7681666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.26</v>
+        <v>50.03</v>
       </c>
       <c r="C32" t="n">
-        <v>50.26</v>
+        <v>50.03</v>
       </c>
       <c r="D32" t="n">
-        <v>50.26</v>
+        <v>50.03</v>
       </c>
       <c r="E32" t="n">
-        <v>50.26</v>
+        <v>50.03</v>
       </c>
       <c r="F32" t="n">
-        <v>124.1393</v>
+        <v>30.7442</v>
       </c>
       <c r="G32" t="n">
-        <v>49.7926666666667</v>
+        <v>49.77733333333337</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.01</v>
+        <v>50.26</v>
       </c>
       <c r="C33" t="n">
-        <v>50.01</v>
+        <v>50.26</v>
       </c>
       <c r="D33" t="n">
-        <v>50.01</v>
+        <v>50.26</v>
       </c>
       <c r="E33" t="n">
-        <v>50.01</v>
+        <v>50.26</v>
       </c>
       <c r="F33" t="n">
-        <v>557.5637</v>
+        <v>124.1393</v>
       </c>
       <c r="G33" t="n">
-        <v>49.80450000000004</v>
+        <v>49.7926666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50.22</v>
+        <v>50.01</v>
       </c>
       <c r="C34" t="n">
-        <v>50.48</v>
+        <v>50.01</v>
       </c>
       <c r="D34" t="n">
-        <v>50.48</v>
+        <v>50.01</v>
       </c>
       <c r="E34" t="n">
-        <v>50.22</v>
+        <v>50.01</v>
       </c>
       <c r="F34" t="n">
-        <v>46271.52573988</v>
+        <v>557.5637</v>
       </c>
       <c r="G34" t="n">
-        <v>49.8241666666667</v>
+        <v>49.80450000000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>50.4</v>
+        <v>50.22</v>
       </c>
       <c r="C35" t="n">
-        <v>50.42</v>
+        <v>50.48</v>
       </c>
       <c r="D35" t="n">
-        <v>50.42</v>
+        <v>50.48</v>
       </c>
       <c r="E35" t="n">
-        <v>50.4</v>
+        <v>50.22</v>
       </c>
       <c r="F35" t="n">
-        <v>1077.3906</v>
+        <v>46271.52573988</v>
       </c>
       <c r="G35" t="n">
-        <v>49.84283333333337</v>
+        <v>49.8241666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>50.28</v>
+        <v>50.4</v>
       </c>
       <c r="C36" t="n">
-        <v>50.27</v>
+        <v>50.42</v>
       </c>
       <c r="D36" t="n">
-        <v>50.28</v>
+        <v>50.42</v>
       </c>
       <c r="E36" t="n">
-        <v>50.27</v>
+        <v>50.4</v>
       </c>
       <c r="F36" t="n">
-        <v>4818.9902</v>
+        <v>1077.3906</v>
       </c>
       <c r="G36" t="n">
-        <v>49.86133333333337</v>
+        <v>49.84283333333337</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.1</v>
+        <v>50.28</v>
       </c>
       <c r="C37" t="n">
-        <v>50.1</v>
+        <v>50.27</v>
       </c>
       <c r="D37" t="n">
-        <v>50.1</v>
+        <v>50.28</v>
       </c>
       <c r="E37" t="n">
-        <v>50.1</v>
+        <v>50.27</v>
       </c>
       <c r="F37" t="n">
-        <v>1442.7726</v>
+        <v>4818.9902</v>
       </c>
       <c r="G37" t="n">
-        <v>49.8796666666667</v>
+        <v>49.86133333333337</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50.22</v>
+        <v>50.1</v>
       </c>
       <c r="C38" t="n">
-        <v>50.22</v>
+        <v>50.1</v>
       </c>
       <c r="D38" t="n">
-        <v>50.22</v>
+        <v>50.1</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="F38" t="n">
-        <v>67883.853</v>
+        <v>1442.7726</v>
       </c>
       <c r="G38" t="n">
-        <v>49.89850000000003</v>
+        <v>49.8796666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50.2</v>
+        <v>50.22</v>
       </c>
       <c r="C39" t="n">
-        <v>50.2</v>
+        <v>50.22</v>
       </c>
       <c r="D39" t="n">
-        <v>50.2</v>
+        <v>50.22</v>
       </c>
       <c r="E39" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="F39" t="n">
-        <v>22.3983</v>
+        <v>67883.853</v>
       </c>
       <c r="G39" t="n">
-        <v>49.91700000000002</v>
+        <v>49.89850000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50.04</v>
+        <v>50.2</v>
       </c>
       <c r="C40" t="n">
-        <v>50.04</v>
+        <v>50.2</v>
       </c>
       <c r="D40" t="n">
-        <v>50.04</v>
+        <v>50.2</v>
       </c>
       <c r="E40" t="n">
-        <v>50.04</v>
+        <v>50.2</v>
       </c>
       <c r="F40" t="n">
-        <v>552.1643</v>
+        <v>22.3983</v>
       </c>
       <c r="G40" t="n">
-        <v>49.93283333333336</v>
+        <v>49.91700000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>50.2</v>
+        <v>50.04</v>
       </c>
       <c r="C41" t="n">
-        <v>50.2</v>
+        <v>50.04</v>
       </c>
       <c r="D41" t="n">
-        <v>50.2</v>
+        <v>50.04</v>
       </c>
       <c r="E41" t="n">
-        <v>50.2</v>
+        <v>50.04</v>
       </c>
       <c r="F41" t="n">
-        <v>20.1674</v>
+        <v>552.1643</v>
       </c>
       <c r="G41" t="n">
-        <v>49.95283333333335</v>
+        <v>49.93283333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="C42" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F42" t="n">
-        <v>5729.8128</v>
+        <v>20.1674</v>
       </c>
       <c r="G42" t="n">
-        <v>49.96950000000002</v>
+        <v>49.95283333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="C43" t="n">
         <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
         <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>1957.5584</v>
+        <v>5729.8128</v>
       </c>
       <c r="G43" t="n">
-        <v>49.98616666666668</v>
+        <v>49.96950000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C44" t="n">
         <v>50</v>
-      </c>
-      <c r="C44" t="n">
-        <v>50.2</v>
       </c>
       <c r="D44" t="n">
         <v>50.2</v>
@@ -1915,10 +1915,10 @@
         <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>29003.7408</v>
+        <v>1957.5584</v>
       </c>
       <c r="G44" t="n">
-        <v>50.00400000000001</v>
+        <v>49.98616666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>50</v>
       </c>
       <c r="C45" t="n">
-        <v>49.94</v>
+        <v>50.2</v>
       </c>
       <c r="D45" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E45" t="n">
         <v>50</v>
       </c>
-      <c r="E45" t="n">
-        <v>49.94</v>
-      </c>
       <c r="F45" t="n">
-        <v>43635.1889</v>
+        <v>29003.7408</v>
       </c>
       <c r="G45" t="n">
-        <v>50.01866666666668</v>
+        <v>50.00400000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>50.04</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>49.75</v>
+        <v>49.94</v>
       </c>
       <c r="D46" t="n">
-        <v>50.04</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>49.75</v>
+        <v>49.94</v>
       </c>
       <c r="F46" t="n">
-        <v>99461.11659999999</v>
+        <v>43635.1889</v>
       </c>
       <c r="G46" t="n">
-        <v>50.02950000000001</v>
+        <v>50.01866666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49.77</v>
+        <v>50.04</v>
       </c>
       <c r="C47" t="n">
-        <v>49.77</v>
+        <v>49.75</v>
       </c>
       <c r="D47" t="n">
-        <v>49.77</v>
+        <v>50.04</v>
       </c>
       <c r="E47" t="n">
-        <v>49.77</v>
+        <v>49.75</v>
       </c>
       <c r="F47" t="n">
-        <v>2114.7322</v>
+        <v>99461.11659999999</v>
       </c>
       <c r="G47" t="n">
-        <v>50.03433333333335</v>
+        <v>50.02950000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49.79</v>
+        <v>49.77</v>
       </c>
       <c r="C48" t="n">
         <v>49.77</v>
       </c>
       <c r="D48" t="n">
-        <v>49.79</v>
+        <v>49.77</v>
       </c>
       <c r="E48" t="n">
         <v>49.77</v>
       </c>
       <c r="F48" t="n">
-        <v>170858.4027</v>
+        <v>2114.7322</v>
       </c>
       <c r="G48" t="n">
-        <v>50.03633333333335</v>
+        <v>50.03433333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>49.76</v>
+        <v>49.79</v>
       </c>
       <c r="C49" t="n">
-        <v>49.76</v>
+        <v>49.77</v>
       </c>
       <c r="D49" t="n">
-        <v>49.76</v>
+        <v>49.79</v>
       </c>
       <c r="E49" t="n">
-        <v>49.76</v>
+        <v>49.77</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>170858.4027</v>
       </c>
       <c r="G49" t="n">
-        <v>50.03750000000002</v>
+        <v>50.03633333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49.96</v>
+        <v>49.76</v>
       </c>
       <c r="C50" t="n">
-        <v>49.96</v>
+        <v>49.76</v>
       </c>
       <c r="D50" t="n">
-        <v>49.96</v>
+        <v>49.76</v>
       </c>
       <c r="E50" t="n">
-        <v>49.96</v>
+        <v>49.76</v>
       </c>
       <c r="F50" t="n">
-        <v>1041.2487</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>50.04933333333335</v>
+        <v>50.03750000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>49.96</v>
       </c>
       <c r="F51" t="n">
-        <v>1170.8453</v>
+        <v>1041.2487</v>
       </c>
       <c r="G51" t="n">
-        <v>50.05433333333335</v>
+        <v>50.04933333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50.16</v>
+        <v>49.96</v>
       </c>
       <c r="C52" t="n">
-        <v>50.16</v>
+        <v>49.96</v>
       </c>
       <c r="D52" t="n">
-        <v>50.16</v>
+        <v>49.96</v>
       </c>
       <c r="E52" t="n">
-        <v>50.16</v>
+        <v>49.96</v>
       </c>
       <c r="F52" t="n">
-        <v>36344.1243</v>
+        <v>1170.8453</v>
       </c>
       <c r="G52" t="n">
-        <v>50.06033333333335</v>
+        <v>50.05433333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>50.16</v>
       </c>
       <c r="F53" t="n">
-        <v>90.6336</v>
+        <v>36344.1243</v>
       </c>
       <c r="G53" t="n">
-        <v>50.06266666666668</v>
+        <v>50.06033333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>50.16</v>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>50.16</v>
       </c>
       <c r="D54" t="n">
-        <v>50</v>
+        <v>50.16</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>50.16</v>
       </c>
       <c r="F54" t="n">
-        <v>458.5657</v>
+        <v>90.6336</v>
       </c>
       <c r="G54" t="n">
-        <v>50.06600000000001</v>
+        <v>50.06266666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.17</v>
+        <v>50</v>
       </c>
       <c r="C55" t="n">
-        <v>50.17</v>
+        <v>50</v>
       </c>
       <c r="D55" t="n">
-        <v>50.17</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
-        <v>50.17</v>
+        <v>50</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>458.5657</v>
       </c>
       <c r="G55" t="n">
-        <v>50.07216666666667</v>
+        <v>50.06600000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>50.17</v>
       </c>
       <c r="C56" t="n">
-        <v>50.18</v>
+        <v>50.17</v>
       </c>
       <c r="D56" t="n">
-        <v>50.18</v>
+        <v>50.17</v>
       </c>
       <c r="E56" t="n">
         <v>50.17</v>
       </c>
       <c r="F56" t="n">
-        <v>149.2304</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>50.0785</v>
+        <v>50.07216666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="C57" t="n">
         <v>50.18</v>
       </c>
-      <c r="C57" t="n">
-        <v>50.21</v>
-      </c>
       <c r="D57" t="n">
-        <v>50.21</v>
+        <v>50.18</v>
       </c>
       <c r="E57" t="n">
-        <v>50.18</v>
+        <v>50.17</v>
       </c>
       <c r="F57" t="n">
-        <v>53791.117</v>
+        <v>149.2304</v>
       </c>
       <c r="G57" t="n">
-        <v>50.08366666666667</v>
+        <v>50.0785</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>50.17</v>
+        <v>50.18</v>
       </c>
       <c r="C58" t="n">
-        <v>50.17</v>
+        <v>50.21</v>
       </c>
       <c r="D58" t="n">
-        <v>50.17</v>
+        <v>50.21</v>
       </c>
       <c r="E58" t="n">
-        <v>50.17</v>
+        <v>50.18</v>
       </c>
       <c r="F58" t="n">
-        <v>5.7696</v>
+        <v>53791.117</v>
       </c>
       <c r="G58" t="n">
-        <v>50.0865</v>
+        <v>50.08366666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>50.28</v>
+        <v>50.17</v>
       </c>
       <c r="C59" t="n">
-        <v>50.28</v>
+        <v>50.17</v>
       </c>
       <c r="D59" t="n">
-        <v>50.28</v>
+        <v>50.17</v>
       </c>
       <c r="E59" t="n">
-        <v>50.28</v>
+        <v>50.17</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>5.7696</v>
       </c>
       <c r="G59" t="n">
-        <v>50.091</v>
+        <v>50.0865</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>50.28</v>
       </c>
       <c r="C60" t="n">
-        <v>50.08</v>
+        <v>50.28</v>
       </c>
       <c r="D60" t="n">
         <v>50.28</v>
       </c>
       <c r="E60" t="n">
-        <v>50.08</v>
+        <v>50.28</v>
       </c>
       <c r="F60" t="n">
-        <v>86258.9639</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>50.08916666666666</v>
+        <v>50.091</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>50.09</v>
+        <v>50.28</v>
       </c>
       <c r="C61" t="n">
-        <v>50.09</v>
+        <v>50.08</v>
       </c>
       <c r="D61" t="n">
-        <v>50.09</v>
+        <v>50.28</v>
       </c>
       <c r="E61" t="n">
-        <v>50.09</v>
+        <v>50.08</v>
       </c>
       <c r="F61" t="n">
-        <v>2415.8103</v>
+        <v>86258.9639</v>
       </c>
       <c r="G61" t="n">
-        <v>50.0875</v>
+        <v>50.08916666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>50.44</v>
+        <v>50.09</v>
       </c>
       <c r="C62" t="n">
-        <v>50.44</v>
+        <v>50.09</v>
       </c>
       <c r="D62" t="n">
-        <v>50.44</v>
+        <v>50.09</v>
       </c>
       <c r="E62" t="n">
-        <v>50.44</v>
+        <v>50.09</v>
       </c>
       <c r="F62" t="n">
-        <v>36.4631</v>
+        <v>2415.8103</v>
       </c>
       <c r="G62" t="n">
-        <v>50.09433333333333</v>
+        <v>50.0875</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>50.35</v>
+        <v>50.44</v>
       </c>
       <c r="C63" t="n">
-        <v>50.35</v>
+        <v>50.44</v>
       </c>
       <c r="D63" t="n">
-        <v>50.35</v>
+        <v>50.44</v>
       </c>
       <c r="E63" t="n">
-        <v>50.35</v>
+        <v>50.44</v>
       </c>
       <c r="F63" t="n">
-        <v>30269.5145</v>
+        <v>36.4631</v>
       </c>
       <c r="G63" t="n">
-        <v>50.096</v>
+        <v>50.09433333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>50.08</v>
+        <v>50.35</v>
       </c>
       <c r="C64" t="n">
-        <v>49.85</v>
+        <v>50.35</v>
       </c>
       <c r="D64" t="n">
-        <v>50.08</v>
+        <v>50.35</v>
       </c>
       <c r="E64" t="n">
-        <v>49.85</v>
+        <v>50.35</v>
       </c>
       <c r="F64" t="n">
-        <v>259883.5674</v>
+        <v>30269.5145</v>
       </c>
       <c r="G64" t="n">
-        <v>50.087</v>
+        <v>50.096</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>50.05</v>
+        <v>50.08</v>
       </c>
       <c r="C65" t="n">
-        <v>50.14</v>
+        <v>49.85</v>
       </c>
       <c r="D65" t="n">
-        <v>50.14</v>
+        <v>50.08</v>
       </c>
       <c r="E65" t="n">
-        <v>50.05</v>
+        <v>49.85</v>
       </c>
       <c r="F65" t="n">
-        <v>107.3144</v>
+        <v>259883.5674</v>
       </c>
       <c r="G65" t="n">
-        <v>50.086</v>
+        <v>50.087</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>49.95</v>
+        <v>50.05</v>
       </c>
       <c r="C66" t="n">
-        <v>49.95</v>
+        <v>50.14</v>
       </c>
       <c r="D66" t="n">
-        <v>49.95</v>
+        <v>50.14</v>
       </c>
       <c r="E66" t="n">
-        <v>49.95</v>
+        <v>50.05</v>
       </c>
       <c r="F66" t="n">
-        <v>999.2074</v>
+        <v>107.3144</v>
       </c>
       <c r="G66" t="n">
-        <v>50.07749999999999</v>
+        <v>50.086</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>49.95</v>
       </c>
       <c r="F67" t="n">
-        <v>83.2749</v>
+        <v>999.2074</v>
       </c>
       <c r="G67" t="n">
-        <v>50.06816666666666</v>
+        <v>50.07749999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>49.95</v>
       </c>
       <c r="C68" t="n">
-        <v>49.69</v>
+        <v>49.95</v>
       </c>
       <c r="D68" t="n">
         <v>49.95</v>
       </c>
       <c r="E68" t="n">
-        <v>49.69</v>
+        <v>49.95</v>
       </c>
       <c r="F68" t="n">
-        <v>42027.4601</v>
+        <v>83.2749</v>
       </c>
       <c r="G68" t="n">
-        <v>50.05766666666666</v>
+        <v>50.06816666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>49.66</v>
+        <v>49.95</v>
       </c>
       <c r="C69" t="n">
-        <v>49.65</v>
+        <v>49.69</v>
       </c>
       <c r="D69" t="n">
-        <v>49.66</v>
+        <v>49.95</v>
       </c>
       <c r="E69" t="n">
-        <v>49.65</v>
+        <v>49.69</v>
       </c>
       <c r="F69" t="n">
-        <v>36434.7579</v>
+        <v>42027.4601</v>
       </c>
       <c r="G69" t="n">
-        <v>50.04833333333332</v>
+        <v>50.05766666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49.65</v>
+        <v>49.66</v>
       </c>
       <c r="C70" t="n">
         <v>49.65</v>
       </c>
       <c r="D70" t="n">
-        <v>49.65</v>
+        <v>49.66</v>
       </c>
       <c r="E70" t="n">
         <v>49.65</v>
       </c>
       <c r="F70" t="n">
-        <v>4907.7232</v>
+        <v>36434.7579</v>
       </c>
       <c r="G70" t="n">
-        <v>50.03683333333332</v>
+        <v>50.04833333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49.68</v>
+        <v>49.65</v>
       </c>
       <c r="C71" t="n">
-        <v>49.68</v>
+        <v>49.65</v>
       </c>
       <c r="D71" t="n">
-        <v>49.68</v>
+        <v>49.65</v>
       </c>
       <c r="E71" t="n">
-        <v>49.68</v>
+        <v>49.65</v>
       </c>
       <c r="F71" t="n">
-        <v>5321.7626</v>
+        <v>4907.7232</v>
       </c>
       <c r="G71" t="n">
-        <v>50.02583333333332</v>
+        <v>50.03683333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>49.75</v>
+        <v>49.68</v>
       </c>
       <c r="C72" t="n">
-        <v>49.75</v>
+        <v>49.68</v>
       </c>
       <c r="D72" t="n">
-        <v>49.75</v>
+        <v>49.68</v>
       </c>
       <c r="E72" t="n">
-        <v>49.75</v>
+        <v>49.68</v>
       </c>
       <c r="F72" t="n">
-        <v>274.8188</v>
+        <v>5321.7626</v>
       </c>
       <c r="G72" t="n">
-        <v>50.01599999999998</v>
+        <v>50.02583333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>49.75</v>
       </c>
       <c r="F73" t="n">
-        <v>160.3146</v>
+        <v>274.8188</v>
       </c>
       <c r="G73" t="n">
-        <v>50.0113333333333</v>
+        <v>50.01599999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49.85</v>
+        <v>49.75</v>
       </c>
       <c r="C74" t="n">
-        <v>49.85</v>
+        <v>49.75</v>
       </c>
       <c r="D74" t="n">
-        <v>49.85</v>
+        <v>49.75</v>
       </c>
       <c r="E74" t="n">
-        <v>49.85</v>
+        <v>49.75</v>
       </c>
       <c r="F74" t="n">
-        <v>406.2388</v>
+        <v>160.3146</v>
       </c>
       <c r="G74" t="n">
-        <v>50.00466666666664</v>
+        <v>50.0113333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>49.85</v>
       </c>
       <c r="D75" t="n">
-        <v>49.9</v>
+        <v>49.85</v>
       </c>
       <c r="E75" t="n">
         <v>49.85</v>
       </c>
       <c r="F75" t="n">
-        <v>10727.6973</v>
+        <v>406.2388</v>
       </c>
       <c r="G75" t="n">
-        <v>49.99999999999997</v>
+        <v>50.00466666666664</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>49.94</v>
+        <v>49.85</v>
       </c>
       <c r="C76" t="n">
-        <v>49.94</v>
+        <v>49.85</v>
       </c>
       <c r="D76" t="n">
-        <v>49.94</v>
+        <v>49.9</v>
       </c>
       <c r="E76" t="n">
-        <v>49.94</v>
+        <v>49.85</v>
       </c>
       <c r="F76" t="n">
-        <v>13.0354</v>
+        <v>10727.6973</v>
       </c>
       <c r="G76" t="n">
-        <v>49.99916666666664</v>
+        <v>49.99999999999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.91</v>
+        <v>49.94</v>
       </c>
       <c r="C77" t="n">
-        <v>49.91</v>
+        <v>49.94</v>
       </c>
       <c r="D77" t="n">
-        <v>49.91</v>
+        <v>49.94</v>
       </c>
       <c r="E77" t="n">
-        <v>49.91</v>
+        <v>49.94</v>
       </c>
       <c r="F77" t="n">
-        <v>7935.7752</v>
+        <v>13.0354</v>
       </c>
       <c r="G77" t="n">
-        <v>49.99399999999998</v>
+        <v>49.99916666666664</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>49.8</v>
+        <v>49.91</v>
       </c>
       <c r="C78" t="n">
-        <v>49.98</v>
+        <v>49.91</v>
       </c>
       <c r="D78" t="n">
-        <v>49.98</v>
+        <v>49.91</v>
       </c>
       <c r="E78" t="n">
-        <v>49.67</v>
+        <v>49.91</v>
       </c>
       <c r="F78" t="n">
-        <v>6146.25765202</v>
+        <v>7935.7752</v>
       </c>
       <c r="G78" t="n">
-        <v>49.99099999999998</v>
+        <v>49.99399999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>49.87</v>
+        <v>49.8</v>
       </c>
       <c r="C79" t="n">
-        <v>49.87</v>
+        <v>49.98</v>
       </c>
       <c r="D79" t="n">
-        <v>49.87</v>
+        <v>49.98</v>
       </c>
       <c r="E79" t="n">
-        <v>49.87</v>
+        <v>49.67</v>
       </c>
       <c r="F79" t="n">
-        <v>451.4151</v>
+        <v>6146.25765202</v>
       </c>
       <c r="G79" t="n">
-        <v>49.98849999999997</v>
+        <v>49.99099999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>49.87</v>
       </c>
       <c r="F80" t="n">
-        <v>80.05589999999999</v>
+        <v>451.4151</v>
       </c>
       <c r="G80" t="n">
-        <v>49.98899999999997</v>
+        <v>49.98849999999997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>49.66</v>
+        <v>49.87</v>
       </c>
       <c r="C81" t="n">
-        <v>49.7</v>
+        <v>49.87</v>
       </c>
       <c r="D81" t="n">
-        <v>49.7</v>
+        <v>49.87</v>
       </c>
       <c r="E81" t="n">
-        <v>49.6</v>
+        <v>49.87</v>
       </c>
       <c r="F81" t="n">
-        <v>80669.8852</v>
+        <v>80.05589999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>49.98833333333331</v>
+        <v>49.98899999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>49.61</v>
+        <v>49.66</v>
       </c>
       <c r="C82" t="n">
-        <v>49.56</v>
+        <v>49.7</v>
       </c>
       <c r="D82" t="n">
-        <v>49.61</v>
+        <v>49.7</v>
       </c>
       <c r="E82" t="n">
-        <v>49.56</v>
+        <v>49.6</v>
       </c>
       <c r="F82" t="n">
-        <v>70669.8852</v>
+        <v>80669.8852</v>
       </c>
       <c r="G82" t="n">
-        <v>49.98249999999997</v>
+        <v>49.98833333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>49.6</v>
+        <v>49.61</v>
       </c>
       <c r="C83" t="n">
-        <v>49.6</v>
+        <v>49.56</v>
       </c>
       <c r="D83" t="n">
-        <v>49.6</v>
+        <v>49.61</v>
       </c>
       <c r="E83" t="n">
-        <v>49.6</v>
+        <v>49.56</v>
       </c>
       <c r="F83" t="n">
-        <v>149.9098</v>
+        <v>70669.8852</v>
       </c>
       <c r="G83" t="n">
-        <v>49.98099999999997</v>
+        <v>49.98249999999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>49.53</v>
+        <v>49.6</v>
       </c>
       <c r="C84" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D84" t="n">
-        <v>49.53</v>
+        <v>49.6</v>
       </c>
       <c r="E84" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F84" t="n">
-        <v>48811.3143</v>
+        <v>149.9098</v>
       </c>
       <c r="G84" t="n">
-        <v>49.97883333333331</v>
+        <v>49.98099999999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>49.5</v>
+        <v>49.53</v>
       </c>
       <c r="C85" t="n">
         <v>49.5</v>
       </c>
       <c r="D85" t="n">
-        <v>49.5</v>
+        <v>49.53</v>
       </c>
       <c r="E85" t="n">
         <v>49.5</v>
       </c>
       <c r="F85" t="n">
-        <v>4398.1688</v>
+        <v>48811.3143</v>
       </c>
       <c r="G85" t="n">
-        <v>49.97416666666663</v>
+        <v>49.97883333333331</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>49.5</v>
       </c>
       <c r="C86" t="n">
-        <v>49.43</v>
+        <v>49.5</v>
       </c>
       <c r="D86" t="n">
         <v>49.5</v>
       </c>
       <c r="E86" t="n">
-        <v>49.43</v>
+        <v>49.5</v>
       </c>
       <c r="F86" t="n">
-        <v>56728.319</v>
+        <v>4398.1688</v>
       </c>
       <c r="G86" t="n">
-        <v>49.96833333333329</v>
+        <v>49.97416666666663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>49.43</v>
+        <v>49.5</v>
       </c>
       <c r="C87" t="n">
         <v>49.43</v>
       </c>
       <c r="D87" t="n">
-        <v>49.43</v>
+        <v>49.5</v>
       </c>
       <c r="E87" t="n">
         <v>49.43</v>
       </c>
       <c r="F87" t="n">
-        <v>31055.5375</v>
+        <v>56728.319</v>
       </c>
       <c r="G87" t="n">
-        <v>49.95983333333329</v>
+        <v>49.96833333333329</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.52</v>
+        <v>49.43</v>
       </c>
       <c r="C88" t="n">
         <v>49.43</v>
       </c>
       <c r="D88" t="n">
-        <v>49.52</v>
+        <v>49.43</v>
       </c>
       <c r="E88" t="n">
         <v>49.43</v>
       </c>
       <c r="F88" t="n">
-        <v>880.1553</v>
+        <v>31055.5375</v>
       </c>
       <c r="G88" t="n">
-        <v>49.95133333333329</v>
+        <v>49.95983333333329</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49.3</v>
+        <v>49.52</v>
       </c>
       <c r="C89" t="n">
         <v>49.43</v>
       </c>
       <c r="D89" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="E89" t="n">
         <v>49.43</v>
       </c>
-      <c r="E89" t="n">
-        <v>49.3</v>
-      </c>
       <c r="F89" t="n">
-        <v>12473.9097</v>
+        <v>880.1553</v>
       </c>
       <c r="G89" t="n">
-        <v>49.94133333333328</v>
+        <v>49.95133333333329</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>49.43</v>
+        <v>49.3</v>
       </c>
       <c r="C90" t="n">
         <v>49.43</v>
@@ -3522,13 +3522,13 @@
         <v>49.43</v>
       </c>
       <c r="E90" t="n">
-        <v>49.43</v>
+        <v>49.3</v>
       </c>
       <c r="F90" t="n">
-        <v>1805.3936</v>
+        <v>12473.9097</v>
       </c>
       <c r="G90" t="n">
-        <v>49.93283333333328</v>
+        <v>49.94133333333328</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>49.27</v>
+        <v>49.43</v>
       </c>
       <c r="C91" t="n">
-        <v>49.42</v>
+        <v>49.43</v>
       </c>
       <c r="D91" t="n">
-        <v>49.42</v>
+        <v>49.43</v>
       </c>
       <c r="E91" t="n">
-        <v>49.27</v>
+        <v>49.43</v>
       </c>
       <c r="F91" t="n">
-        <v>31717.5385</v>
+        <v>1805.3936</v>
       </c>
       <c r="G91" t="n">
-        <v>49.92266666666661</v>
+        <v>49.93283333333328</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.41</v>
+        <v>49.27</v>
       </c>
       <c r="C92" t="n">
-        <v>49.41</v>
+        <v>49.42</v>
       </c>
       <c r="D92" t="n">
-        <v>49.41</v>
+        <v>49.42</v>
       </c>
       <c r="E92" t="n">
-        <v>49.41</v>
+        <v>49.27</v>
       </c>
       <c r="F92" t="n">
-        <v>10171.1744</v>
+        <v>31717.5385</v>
       </c>
       <c r="G92" t="n">
-        <v>49.90849999999993</v>
+        <v>49.92266666666661</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.4</v>
+        <v>49.41</v>
       </c>
       <c r="C93" t="n">
-        <v>49.4</v>
+        <v>49.41</v>
       </c>
       <c r="D93" t="n">
-        <v>49.4</v>
+        <v>49.41</v>
       </c>
       <c r="E93" t="n">
-        <v>49.4</v>
+        <v>49.41</v>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>10171.1744</v>
       </c>
       <c r="G93" t="n">
-        <v>49.89833333333327</v>
+        <v>49.90849999999993</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>49.24</v>
+        <v>49.4</v>
       </c>
       <c r="C94" t="n">
-        <v>49.24</v>
+        <v>49.4</v>
       </c>
       <c r="D94" t="n">
-        <v>49.24</v>
+        <v>49.4</v>
       </c>
       <c r="E94" t="n">
-        <v>49.24</v>
+        <v>49.4</v>
       </c>
       <c r="F94" t="n">
-        <v>2379.8895</v>
+        <v>200</v>
       </c>
       <c r="G94" t="n">
-        <v>49.8776666666666</v>
+        <v>49.89833333333327</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>49.24</v>
       </c>
       <c r="F95" t="n">
-        <v>681.3488</v>
+        <v>2379.8895</v>
       </c>
       <c r="G95" t="n">
-        <v>49.85799999999993</v>
+        <v>49.8776666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>49.24</v>
       </c>
       <c r="F96" t="n">
-        <v>4835.9109</v>
+        <v>681.3488</v>
       </c>
       <c r="G96" t="n">
-        <v>49.84083333333326</v>
+        <v>49.85799999999993</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>49.24</v>
       </c>
       <c r="F97" t="n">
-        <v>36.9699</v>
+        <v>4835.9109</v>
       </c>
       <c r="G97" t="n">
-        <v>49.82649999999992</v>
+        <v>49.84083333333326</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>49.24</v>
       </c>
       <c r="F98" t="n">
-        <v>4499.0137</v>
+        <v>36.9699</v>
       </c>
       <c r="G98" t="n">
-        <v>49.81016666666658</v>
+        <v>49.82649999999992</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>49.13</v>
+        <v>49.24</v>
       </c>
       <c r="C99" t="n">
-        <v>49.01</v>
+        <v>49.24</v>
       </c>
       <c r="D99" t="n">
-        <v>49.13</v>
+        <v>49.24</v>
       </c>
       <c r="E99" t="n">
-        <v>49.01</v>
+        <v>49.24</v>
       </c>
       <c r="F99" t="n">
-        <v>3820.5295</v>
+        <v>4499.0137</v>
       </c>
       <c r="G99" t="n">
-        <v>49.79033333333326</v>
+        <v>49.81016666666658</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>49.24</v>
+        <v>49.13</v>
       </c>
       <c r="C100" t="n">
-        <v>48.83</v>
+        <v>49.01</v>
       </c>
       <c r="D100" t="n">
-        <v>49.24</v>
+        <v>49.13</v>
       </c>
       <c r="E100" t="n">
-        <v>48.83</v>
+        <v>49.01</v>
       </c>
       <c r="F100" t="n">
-        <v>165678.5026</v>
+        <v>3820.5295</v>
       </c>
       <c r="G100" t="n">
-        <v>49.77016666666659</v>
+        <v>49.79033333333326</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="C101" t="n">
         <v>48.83</v>
       </c>
-      <c r="C101" t="n">
-        <v>48.87</v>
-      </c>
       <c r="D101" t="n">
-        <v>48.87</v>
+        <v>49.24</v>
       </c>
       <c r="E101" t="n">
         <v>48.83</v>
       </c>
       <c r="F101" t="n">
-        <v>32933.158</v>
+        <v>165678.5026</v>
       </c>
       <c r="G101" t="n">
-        <v>49.74799999999993</v>
+        <v>49.77016666666659</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>48.84</v>
+        <v>48.83</v>
       </c>
       <c r="C102" t="n">
-        <v>48.84</v>
+        <v>48.87</v>
       </c>
       <c r="D102" t="n">
-        <v>48.84</v>
+        <v>48.87</v>
       </c>
       <c r="E102" t="n">
-        <v>48.84</v>
+        <v>48.83</v>
       </c>
       <c r="F102" t="n">
-        <v>3007.0967</v>
+        <v>32933.158</v>
       </c>
       <c r="G102" t="n">
-        <v>49.7286666666666</v>
+        <v>49.74799999999993</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>48.84</v>
       </c>
       <c r="F103" t="n">
-        <v>7455.8272</v>
+        <v>3007.0967</v>
       </c>
       <c r="G103" t="n">
-        <v>49.70933333333326</v>
+        <v>49.7286666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>48.85</v>
+        <v>48.84</v>
       </c>
       <c r="C104" t="n">
-        <v>48.85</v>
+        <v>48.84</v>
       </c>
       <c r="D104" t="n">
-        <v>48.85</v>
+        <v>48.84</v>
       </c>
       <c r="E104" t="n">
-        <v>48.85</v>
+        <v>48.84</v>
       </c>
       <c r="F104" t="n">
-        <v>45918.4911</v>
+        <v>7455.8272</v>
       </c>
       <c r="G104" t="n">
-        <v>49.68683333333327</v>
+        <v>49.70933333333326</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>48.85</v>
       </c>
       <c r="C105" t="n">
-        <v>49.02</v>
+        <v>48.85</v>
       </c>
       <c r="D105" t="n">
-        <v>49.02</v>
+        <v>48.85</v>
       </c>
       <c r="E105" t="n">
         <v>48.85</v>
       </c>
       <c r="F105" t="n">
-        <v>12676.968</v>
+        <v>45918.4911</v>
       </c>
       <c r="G105" t="n">
-        <v>49.67149999999993</v>
+        <v>49.68683333333327</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>48.95</v>
+        <v>48.85</v>
       </c>
       <c r="C106" t="n">
-        <v>49.05</v>
+        <v>49.02</v>
       </c>
       <c r="D106" t="n">
-        <v>49.05</v>
+        <v>49.02</v>
       </c>
       <c r="E106" t="n">
-        <v>48.95</v>
+        <v>48.85</v>
       </c>
       <c r="F106" t="n">
-        <v>2666.0828</v>
+        <v>12676.968</v>
       </c>
       <c r="G106" t="n">
-        <v>49.65983333333327</v>
+        <v>49.67149999999993</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.04</v>
+        <v>48.95</v>
       </c>
       <c r="C107" t="n">
-        <v>49.04</v>
+        <v>49.05</v>
       </c>
       <c r="D107" t="n">
-        <v>49.04</v>
+        <v>49.05</v>
       </c>
       <c r="E107" t="n">
-        <v>49.04</v>
+        <v>48.95</v>
       </c>
       <c r="F107" t="n">
-        <v>78614.1756</v>
+        <v>2666.0828</v>
       </c>
       <c r="G107" t="n">
-        <v>49.6476666666666</v>
+        <v>49.65983333333327</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.05</v>
+        <v>49.04</v>
       </c>
       <c r="C108" t="n">
-        <v>49.05</v>
+        <v>49.04</v>
       </c>
       <c r="D108" t="n">
-        <v>49.05</v>
+        <v>49.04</v>
       </c>
       <c r="E108" t="n">
-        <v>49.05</v>
+        <v>49.04</v>
       </c>
       <c r="F108" t="n">
-        <v>203.8736</v>
+        <v>78614.1756</v>
       </c>
       <c r="G108" t="n">
-        <v>49.6356666666666</v>
+        <v>49.6476666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>49.05</v>
       </c>
       <c r="F109" t="n">
-        <v>4218.6502</v>
+        <v>203.8736</v>
       </c>
       <c r="G109" t="n">
-        <v>49.62383333333327</v>
+        <v>49.6356666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>49.05</v>
       </c>
       <c r="F110" t="n">
-        <v>1266.7187</v>
+        <v>4218.6502</v>
       </c>
       <c r="G110" t="n">
-        <v>49.60866666666661</v>
+        <v>49.62383333333327</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>49.05</v>
       </c>
       <c r="F111" t="n">
-        <v>106.8839</v>
+        <v>1266.7187</v>
       </c>
       <c r="G111" t="n">
-        <v>49.59349999999994</v>
+        <v>49.60866666666661</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>49.05</v>
       </c>
       <c r="F112" t="n">
-        <v>1128.1584</v>
+        <v>106.8839</v>
       </c>
       <c r="G112" t="n">
-        <v>49.57499999999995</v>
+        <v>49.59349999999994</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>49.05</v>
       </c>
       <c r="F113" t="n">
-        <v>4548.1432</v>
+        <v>1128.1584</v>
       </c>
       <c r="G113" t="n">
-        <v>49.55649999999995</v>
+        <v>49.57499999999995</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>49.05</v>
       </c>
       <c r="F114" t="n">
-        <v>170.984</v>
+        <v>4548.1432</v>
       </c>
       <c r="G114" t="n">
-        <v>49.54066666666662</v>
+        <v>49.55649999999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>49.05</v>
       </c>
       <c r="F115" t="n">
-        <v>28.5936</v>
+        <v>170.984</v>
       </c>
       <c r="G115" t="n">
-        <v>49.52199999999996</v>
+        <v>49.54066666666662</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.06</v>
+        <v>49.05</v>
       </c>
       <c r="C116" t="n">
         <v>49.05</v>
       </c>
       <c r="D116" t="n">
-        <v>49.06</v>
+        <v>49.05</v>
       </c>
       <c r="E116" t="n">
         <v>49.05</v>
       </c>
       <c r="F116" t="n">
-        <v>2260.5951</v>
+        <v>28.5936</v>
       </c>
       <c r="G116" t="n">
-        <v>49.50316666666663</v>
+        <v>49.52199999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>49.05</v>
+        <v>49.06</v>
       </c>
       <c r="C117" t="n">
         <v>49.05</v>
       </c>
       <c r="D117" t="n">
-        <v>49.05</v>
+        <v>49.06</v>
       </c>
       <c r="E117" t="n">
         <v>49.05</v>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>2260.5951</v>
       </c>
       <c r="G117" t="n">
-        <v>49.4838333333333</v>
+        <v>49.50316666666663</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>300</v>
       </c>
       <c r="G118" t="n">
-        <v>49.46516666666663</v>
+        <v>49.4838333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>49.05</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G119" t="n">
-        <v>49.44466666666663</v>
+        <v>49.46516666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>49.42749999999997</v>
+        <v>49.44466666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>49.41016666666664</v>
+        <v>49.42749999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>49.38699999999997</v>
+        <v>49.41016666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>49.06</v>
+        <v>49.05</v>
       </c>
       <c r="C123" t="n">
-        <v>48.83</v>
+        <v>49.05</v>
       </c>
       <c r="D123" t="n">
-        <v>49.06</v>
+        <v>49.05</v>
       </c>
       <c r="E123" t="n">
-        <v>48.83</v>
+        <v>49.05</v>
       </c>
       <c r="F123" t="n">
-        <v>14321.1495</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>49.36166666666664</v>
+        <v>49.38699999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.83</v>
+        <v>49.06</v>
       </c>
       <c r="C124" t="n">
         <v>48.83</v>
       </c>
       <c r="D124" t="n">
-        <v>48.83</v>
+        <v>49.06</v>
       </c>
       <c r="E124" t="n">
         <v>48.83</v>
       </c>
       <c r="F124" t="n">
-        <v>9882.0164</v>
+        <v>14321.1495</v>
       </c>
       <c r="G124" t="n">
-        <v>49.34466666666664</v>
+        <v>49.36166666666664</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>48.82</v>
+        <v>48.83</v>
       </c>
       <c r="C125" t="n">
-        <v>49.05</v>
+        <v>48.83</v>
       </c>
       <c r="D125" t="n">
-        <v>49.05</v>
+        <v>48.83</v>
       </c>
       <c r="E125" t="n">
-        <v>48.82</v>
+        <v>48.83</v>
       </c>
       <c r="F125" t="n">
-        <v>7679.6709</v>
+        <v>9882.0164</v>
       </c>
       <c r="G125" t="n">
-        <v>49.32649999999998</v>
+        <v>49.34466666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>48.94</v>
+        <v>48.82</v>
       </c>
       <c r="C126" t="n">
-        <v>48.94</v>
+        <v>49.05</v>
       </c>
       <c r="D126" t="n">
-        <v>48.94</v>
+        <v>49.05</v>
       </c>
       <c r="E126" t="n">
-        <v>48.94</v>
+        <v>48.82</v>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>7679.6709</v>
       </c>
       <c r="G126" t="n">
-        <v>49.30966666666665</v>
+        <v>49.32649999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>48.94</v>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>49.29283333333332</v>
+        <v>49.30966666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>48.94</v>
       </c>
       <c r="C128" t="n">
-        <v>48.73</v>
+        <v>48.94</v>
       </c>
       <c r="D128" t="n">
         <v>48.94</v>
       </c>
       <c r="E128" t="n">
-        <v>48.73</v>
+        <v>48.94</v>
       </c>
       <c r="F128" t="n">
-        <v>10038.8768</v>
+        <v>200</v>
       </c>
       <c r="G128" t="n">
-        <v>49.27683333333332</v>
+        <v>49.29283333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>48.8</v>
+        <v>48.94</v>
       </c>
       <c r="C129" t="n">
-        <v>48.8</v>
+        <v>48.73</v>
       </c>
       <c r="D129" t="n">
-        <v>48.8</v>
+        <v>48.94</v>
       </c>
       <c r="E129" t="n">
-        <v>48.8</v>
+        <v>48.73</v>
       </c>
       <c r="F129" t="n">
-        <v>20000</v>
+        <v>10038.8768</v>
       </c>
       <c r="G129" t="n">
-        <v>49.26266666666665</v>
+        <v>49.27683333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C130" t="n">
-        <v>49.06</v>
+        <v>48.8</v>
       </c>
       <c r="D130" t="n">
-        <v>49.06</v>
+        <v>48.8</v>
       </c>
       <c r="E130" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F130" t="n">
-        <v>96234.1211</v>
+        <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>49.25283333333332</v>
+        <v>49.26266666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>49.06</v>
+        <v>48.9</v>
       </c>
       <c r="C131" t="n">
         <v>49.06</v>
@@ -4957,13 +4957,13 @@
         <v>49.06</v>
       </c>
       <c r="E131" t="n">
-        <v>49.06</v>
+        <v>48.9</v>
       </c>
       <c r="F131" t="n">
-        <v>11981.51243375</v>
+        <v>96234.1211</v>
       </c>
       <c r="G131" t="n">
-        <v>49.24249999999999</v>
+        <v>49.25283333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.98</v>
+        <v>49.06</v>
       </c>
       <c r="C132" t="n">
-        <v>49.16</v>
+        <v>49.06</v>
       </c>
       <c r="D132" t="n">
-        <v>49.16</v>
+        <v>49.06</v>
       </c>
       <c r="E132" t="n">
-        <v>48.96</v>
+        <v>49.06</v>
       </c>
       <c r="F132" t="n">
-        <v>19981.5124</v>
+        <v>11981.51243375</v>
       </c>
       <c r="G132" t="n">
-        <v>49.23266666666665</v>
+        <v>49.24249999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>49.24</v>
+        <v>48.98</v>
       </c>
       <c r="C133" t="n">
-        <v>49.09</v>
+        <v>49.16</v>
       </c>
       <c r="D133" t="n">
-        <v>49.34</v>
+        <v>49.16</v>
       </c>
       <c r="E133" t="n">
-        <v>49.09</v>
+        <v>48.96</v>
       </c>
       <c r="F133" t="n">
-        <v>14129.6643</v>
+        <v>19981.5124</v>
       </c>
       <c r="G133" t="n">
-        <v>49.22166666666666</v>
+        <v>49.23266666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>49.24</v>
       </c>
       <c r="C134" t="n">
-        <v>48.97</v>
+        <v>49.09</v>
       </c>
       <c r="D134" t="n">
-        <v>49.27</v>
+        <v>49.34</v>
       </c>
       <c r="E134" t="n">
-        <v>48.97</v>
+        <v>49.09</v>
       </c>
       <c r="F134" t="n">
-        <v>162741.65098173</v>
+        <v>14129.6643</v>
       </c>
       <c r="G134" t="n">
-        <v>49.20699999999999</v>
+        <v>49.22166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>49.1</v>
+        <v>49.24</v>
       </c>
       <c r="C135" t="n">
-        <v>49.25</v>
+        <v>48.97</v>
       </c>
       <c r="D135" t="n">
-        <v>49.25</v>
+        <v>49.27</v>
       </c>
       <c r="E135" t="n">
-        <v>49.1</v>
+        <v>48.97</v>
       </c>
       <c r="F135" t="n">
-        <v>20144.8707</v>
+        <v>162741.65098173</v>
       </c>
       <c r="G135" t="n">
-        <v>49.19699999999999</v>
+        <v>49.20699999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>49.32</v>
+        <v>49.1</v>
       </c>
       <c r="C136" t="n">
-        <v>49.32</v>
+        <v>49.25</v>
       </c>
       <c r="D136" t="n">
-        <v>49.32</v>
+        <v>49.25</v>
       </c>
       <c r="E136" t="n">
-        <v>49.32</v>
+        <v>49.1</v>
       </c>
       <c r="F136" t="n">
-        <v>741.3919</v>
+        <v>20144.8707</v>
       </c>
       <c r="G136" t="n">
-        <v>49.18666666666665</v>
+        <v>49.19699999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>49.35</v>
+        <v>49.32</v>
       </c>
       <c r="C137" t="n">
-        <v>49.35</v>
+        <v>49.32</v>
       </c>
       <c r="D137" t="n">
-        <v>49.35</v>
+        <v>49.32</v>
       </c>
       <c r="E137" t="n">
-        <v>49.35</v>
+        <v>49.32</v>
       </c>
       <c r="F137" t="n">
-        <v>554.1236</v>
+        <v>741.3919</v>
       </c>
       <c r="G137" t="n">
-        <v>49.17733333333332</v>
+        <v>49.18666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>49.41</v>
+        <v>49.35</v>
       </c>
       <c r="C138" t="n">
-        <v>49.52</v>
+        <v>49.35</v>
       </c>
       <c r="D138" t="n">
-        <v>49.52</v>
+        <v>49.35</v>
       </c>
       <c r="E138" t="n">
-        <v>49.41</v>
+        <v>49.35</v>
       </c>
       <c r="F138" t="n">
-        <v>5296.71009204</v>
+        <v>554.1236</v>
       </c>
       <c r="G138" t="n">
-        <v>49.16966666666666</v>
+        <v>49.17733333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>49.28</v>
+        <v>49.41</v>
       </c>
       <c r="C139" t="n">
-        <v>49.46</v>
+        <v>49.52</v>
       </c>
       <c r="D139" t="n">
-        <v>49.46</v>
+        <v>49.52</v>
       </c>
       <c r="E139" t="n">
-        <v>49.28</v>
+        <v>49.41</v>
       </c>
       <c r="F139" t="n">
-        <v>1010.1462</v>
+        <v>5296.71009204</v>
       </c>
       <c r="G139" t="n">
-        <v>49.16283333333332</v>
+        <v>49.16966666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>49.28</v>
       </c>
       <c r="C140" t="n">
-        <v>49.19</v>
+        <v>49.46</v>
       </c>
       <c r="D140" t="n">
+        <v>49.46</v>
+      </c>
+      <c r="E140" t="n">
         <v>49.28</v>
       </c>
-      <c r="E140" t="n">
-        <v>49.19</v>
-      </c>
       <c r="F140" t="n">
-        <v>24624.8104</v>
+        <v>1010.1462</v>
       </c>
       <c r="G140" t="n">
-        <v>49.15149999999999</v>
+        <v>49.16283333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49.08</v>
+        <v>49.28</v>
       </c>
       <c r="C141" t="n">
-        <v>49.08</v>
+        <v>49.19</v>
       </c>
       <c r="D141" t="n">
-        <v>49.08</v>
+        <v>49.28</v>
       </c>
       <c r="E141" t="n">
-        <v>49.08</v>
+        <v>49.19</v>
       </c>
       <c r="F141" t="n">
-        <v>16000</v>
+        <v>24624.8104</v>
       </c>
       <c r="G141" t="n">
-        <v>49.14116666666666</v>
+        <v>49.15149999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>49.07</v>
+        <v>49.08</v>
       </c>
       <c r="C142" t="n">
-        <v>49.07</v>
+        <v>49.08</v>
       </c>
       <c r="D142" t="n">
-        <v>49.07</v>
+        <v>49.08</v>
       </c>
       <c r="E142" t="n">
-        <v>49.07</v>
+        <v>49.08</v>
       </c>
       <c r="F142" t="n">
-        <v>19264.5274</v>
+        <v>16000</v>
       </c>
       <c r="G142" t="n">
-        <v>49.133</v>
+        <v>49.14116666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>49.07</v>
       </c>
       <c r="F143" t="n">
-        <v>47751.9998</v>
+        <v>19264.5274</v>
       </c>
       <c r="G143" t="n">
-        <v>49.12416666666667</v>
+        <v>49.133</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>49.07</v>
       </c>
       <c r="F144" t="n">
-        <v>8203.9264</v>
+        <v>47751.9998</v>
       </c>
       <c r="G144" t="n">
-        <v>49.117</v>
+        <v>49.12416666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>49.01</v>
+        <v>49.07</v>
       </c>
       <c r="C145" t="n">
-        <v>49.01</v>
+        <v>49.07</v>
       </c>
       <c r="D145" t="n">
-        <v>49.01</v>
+        <v>49.07</v>
       </c>
       <c r="E145" t="n">
-        <v>49.01</v>
+        <v>49.07</v>
       </c>
       <c r="F145" t="n">
-        <v>86700</v>
+        <v>8203.9264</v>
       </c>
       <c r="G145" t="n">
-        <v>49.10883333333334</v>
+        <v>49.117</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>49.01</v>
       </c>
       <c r="F146" t="n">
-        <v>19888.5999</v>
+        <v>86700</v>
       </c>
       <c r="G146" t="n">
-        <v>49.10183333333335</v>
+        <v>49.10883333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>49.01</v>
       </c>
       <c r="F147" t="n">
-        <v>9465</v>
+        <v>19888.5999</v>
       </c>
       <c r="G147" t="n">
-        <v>49.09483333333336</v>
+        <v>49.10183333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>49.01</v>
       </c>
       <c r="F148" t="n">
-        <v>5756.4857</v>
+        <v>9465</v>
       </c>
       <c r="G148" t="n">
-        <v>49.08783333333336</v>
+        <v>49.09483333333336</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>49.14</v>
+        <v>49.01</v>
       </c>
       <c r="C149" t="n">
-        <v>49.14</v>
+        <v>49.01</v>
       </c>
       <c r="D149" t="n">
-        <v>49.14</v>
+        <v>49.01</v>
       </c>
       <c r="E149" t="n">
-        <v>49.14</v>
+        <v>49.01</v>
       </c>
       <c r="F149" t="n">
-        <v>5851.9531</v>
+        <v>5756.4857</v>
       </c>
       <c r="G149" t="n">
-        <v>49.08300000000003</v>
+        <v>49.08783333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>49.22</v>
+        <v>49.14</v>
       </c>
       <c r="C150" t="n">
-        <v>49.01</v>
+        <v>49.14</v>
       </c>
       <c r="D150" t="n">
-        <v>49.22</v>
+        <v>49.14</v>
       </c>
       <c r="E150" t="n">
-        <v>49.01</v>
+        <v>49.14</v>
       </c>
       <c r="F150" t="n">
-        <v>26489.5377</v>
+        <v>5851.9531</v>
       </c>
       <c r="G150" t="n">
-        <v>49.07600000000004</v>
+        <v>49.08300000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.13</v>
+        <v>49.22</v>
       </c>
       <c r="C151" t="n">
         <v>49.01</v>
       </c>
       <c r="D151" t="n">
-        <v>49.13</v>
+        <v>49.22</v>
       </c>
       <c r="E151" t="n">
         <v>49.01</v>
       </c>
       <c r="F151" t="n">
-        <v>22171.0962</v>
+        <v>26489.5377</v>
       </c>
       <c r="G151" t="n">
-        <v>49.0691666666667</v>
+        <v>49.07600000000004</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>49.01</v>
+        <v>49.13</v>
       </c>
       <c r="C152" t="n">
         <v>49.01</v>
       </c>
       <c r="D152" t="n">
-        <v>49.01</v>
+        <v>49.13</v>
       </c>
       <c r="E152" t="n">
         <v>49.01</v>
       </c>
       <c r="F152" t="n">
-        <v>36803.1039</v>
+        <v>22171.0962</v>
       </c>
       <c r="G152" t="n">
-        <v>49.06250000000004</v>
+        <v>49.0691666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>48.87</v>
+        <v>49.01</v>
       </c>
       <c r="C153" t="n">
-        <v>49.04</v>
+        <v>49.01</v>
       </c>
       <c r="D153" t="n">
-        <v>49.04</v>
+        <v>49.01</v>
       </c>
       <c r="E153" t="n">
-        <v>48.87</v>
+        <v>49.01</v>
       </c>
       <c r="F153" t="n">
-        <v>9386.676799999999</v>
+        <v>36803.1039</v>
       </c>
       <c r="G153" t="n">
-        <v>49.05650000000004</v>
+        <v>49.06250000000004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5756,19 @@
         <v>48.87</v>
       </c>
       <c r="C154" t="n">
-        <v>48.87</v>
+        <v>49.04</v>
       </c>
       <c r="D154" t="n">
-        <v>48.87</v>
+        <v>49.04</v>
       </c>
       <c r="E154" t="n">
         <v>48.87</v>
       </c>
       <c r="F154" t="n">
-        <v>299.25</v>
+        <v>9386.676799999999</v>
       </c>
       <c r="G154" t="n">
-        <v>49.05033333333338</v>
+        <v>49.05650000000004</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>48.87</v>
       </c>
       <c r="F155" t="n">
-        <v>18202.7944</v>
+        <v>299.25</v>
       </c>
       <c r="G155" t="n">
-        <v>49.04416666666671</v>
+        <v>49.05033333333338</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>48.87</v>
       </c>
       <c r="C156" t="n">
-        <v>48.7</v>
+        <v>48.87</v>
       </c>
       <c r="D156" t="n">
         <v>48.87</v>
       </c>
       <c r="E156" t="n">
-        <v>48.7</v>
+        <v>48.87</v>
       </c>
       <c r="F156" t="n">
-        <v>934.6818</v>
+        <v>18202.7944</v>
       </c>
       <c r="G156" t="n">
-        <v>49.03516666666671</v>
+        <v>49.04416666666671</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>48.93</v>
+        <v>48.87</v>
       </c>
       <c r="C157" t="n">
-        <v>48.93</v>
+        <v>48.7</v>
       </c>
       <c r="D157" t="n">
-        <v>48.93</v>
+        <v>48.87</v>
       </c>
       <c r="E157" t="n">
-        <v>48.93</v>
+        <v>48.7</v>
       </c>
       <c r="F157" t="n">
-        <v>13074.1944</v>
+        <v>934.6818</v>
       </c>
       <c r="G157" t="n">
-        <v>49.03000000000005</v>
+        <v>49.03516666666671</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>48.93</v>
       </c>
       <c r="F158" t="n">
-        <v>261.5076</v>
+        <v>13074.1944</v>
       </c>
       <c r="G158" t="n">
-        <v>49.02483333333338</v>
+        <v>49.03000000000005</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>48.7</v>
+        <v>48.93</v>
       </c>
       <c r="C159" t="n">
-        <v>48.7</v>
+        <v>48.93</v>
       </c>
       <c r="D159" t="n">
-        <v>48.7</v>
+        <v>48.93</v>
       </c>
       <c r="E159" t="n">
-        <v>48.7</v>
+        <v>48.93</v>
       </c>
       <c r="F159" t="n">
-        <v>23010.4967</v>
+        <v>261.5076</v>
       </c>
       <c r="G159" t="n">
-        <v>49.01966666666671</v>
+        <v>49.02483333333338</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="C160" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D160" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E160" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F160" t="n">
-        <v>326.7151</v>
+        <v>23010.4967</v>
       </c>
       <c r="G160" t="n">
-        <v>49.01916666666671</v>
+        <v>49.01966666666671</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>48.8</v>
       </c>
       <c r="F161" t="n">
-        <v>19803.8391</v>
+        <v>326.7151</v>
       </c>
       <c r="G161" t="n">
-        <v>49.01800000000005</v>
+        <v>49.01916666666671</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C162" t="n">
-        <v>49.19</v>
+        <v>48.8</v>
       </c>
       <c r="D162" t="n">
-        <v>49.19</v>
+        <v>48.8</v>
       </c>
       <c r="E162" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="F162" t="n">
-        <v>22250</v>
+        <v>19803.8391</v>
       </c>
       <c r="G162" t="n">
-        <v>49.02383333333339</v>
+        <v>49.01800000000005</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>49.21</v>
+        <v>49</v>
       </c>
       <c r="C163" t="n">
-        <v>49.21</v>
+        <v>49.19</v>
       </c>
       <c r="D163" t="n">
-        <v>49.21</v>
+        <v>49.19</v>
       </c>
       <c r="E163" t="n">
-        <v>49.21</v>
+        <v>49</v>
       </c>
       <c r="F163" t="n">
-        <v>85531.31630000001</v>
+        <v>22250</v>
       </c>
       <c r="G163" t="n">
-        <v>49.03000000000005</v>
+        <v>49.02383333333339</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="C164" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="D164" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="E164" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="F164" t="n">
-        <v>1484.216</v>
+        <v>85531.31630000001</v>
       </c>
       <c r="G164" t="n">
-        <v>49.03750000000005</v>
+        <v>49.03000000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>49.3</v>
       </c>
       <c r="F165" t="n">
-        <v>15117.019</v>
+        <v>1484.216</v>
       </c>
       <c r="G165" t="n">
-        <v>49.04216666666672</v>
+        <v>49.03750000000005</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6176,19 +6176,19 @@
         <v>49.3</v>
       </c>
       <c r="C166" t="n">
-        <v>49.19</v>
+        <v>49.3</v>
       </c>
       <c r="D166" t="n">
         <v>49.3</v>
       </c>
       <c r="E166" t="n">
-        <v>49.19</v>
+        <v>49.3</v>
       </c>
       <c r="F166" t="n">
-        <v>20000</v>
+        <v>15117.019</v>
       </c>
       <c r="G166" t="n">
-        <v>49.04450000000006</v>
+        <v>49.04216666666672</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C167" t="n">
-        <v>49.4</v>
+        <v>49.19</v>
       </c>
       <c r="D167" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E167" t="n">
-        <v>49.4</v>
+        <v>49.19</v>
       </c>
       <c r="F167" t="n">
-        <v>164.944</v>
+        <v>20000</v>
       </c>
       <c r="G167" t="n">
-        <v>49.05050000000006</v>
+        <v>49.04450000000006</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>49.4</v>
       </c>
       <c r="F168" t="n">
-        <v>4.3661</v>
+        <v>164.944</v>
       </c>
       <c r="G168" t="n">
-        <v>49.05633333333339</v>
+        <v>49.05050000000006</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C169" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D169" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E169" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F169" t="n">
-        <v>4311.5284</v>
+        <v>4.3661</v>
       </c>
       <c r="G169" t="n">
-        <v>49.06050000000005</v>
+        <v>49.05633333333339</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>49.35</v>
+        <v>49.3</v>
       </c>
       <c r="C170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D170" t="n">
-        <v>49.35</v>
+        <v>49.3</v>
       </c>
       <c r="E170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F170" t="n">
-        <v>1682.7278</v>
+        <v>4311.5284</v>
       </c>
       <c r="G170" t="n">
-        <v>49.06300000000005</v>
+        <v>49.06050000000005</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>49.19</v>
+        <v>49.35</v>
       </c>
       <c r="C171" t="n">
-        <v>49.19</v>
+        <v>49.2</v>
       </c>
       <c r="D171" t="n">
-        <v>49.19</v>
+        <v>49.35</v>
       </c>
       <c r="E171" t="n">
-        <v>49.19</v>
+        <v>49.2</v>
       </c>
       <c r="F171" t="n">
-        <v>101.5616</v>
+        <v>1682.7278</v>
       </c>
       <c r="G171" t="n">
-        <v>49.06533333333338</v>
+        <v>49.06300000000005</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>49.19</v>
       </c>
       <c r="F172" t="n">
-        <v>60.8156</v>
+        <v>101.5616</v>
       </c>
       <c r="G172" t="n">
-        <v>49.06766666666671</v>
+        <v>49.06533333333338</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,19 +6421,19 @@
         <v>49.19</v>
       </c>
       <c r="C173" t="n">
-        <v>49.27</v>
+        <v>49.19</v>
       </c>
       <c r="D173" t="n">
-        <v>49.27</v>
+        <v>49.19</v>
       </c>
       <c r="E173" t="n">
         <v>49.19</v>
       </c>
       <c r="F173" t="n">
-        <v>2390.82546381</v>
+        <v>60.8156</v>
       </c>
       <c r="G173" t="n">
-        <v>49.07133333333338</v>
+        <v>49.06766666666671</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>49.35</v>
+        <v>49.19</v>
       </c>
       <c r="C174" t="n">
-        <v>49.35</v>
+        <v>49.27</v>
       </c>
       <c r="D174" t="n">
-        <v>49.35</v>
+        <v>49.27</v>
       </c>
       <c r="E174" t="n">
-        <v>49.35</v>
+        <v>49.19</v>
       </c>
       <c r="F174" t="n">
-        <v>25.99797365</v>
+        <v>2390.82546381</v>
       </c>
       <c r="G174" t="n">
-        <v>49.07633333333337</v>
+        <v>49.07133333333338</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>49.34</v>
+        <v>49.35</v>
       </c>
       <c r="C175" t="n">
-        <v>49.34</v>
+        <v>49.35</v>
       </c>
       <c r="D175" t="n">
-        <v>49.34</v>
+        <v>49.35</v>
       </c>
       <c r="E175" t="n">
-        <v>49.34</v>
+        <v>49.35</v>
       </c>
       <c r="F175" t="n">
-        <v>10108.4944</v>
+        <v>25.99797365</v>
       </c>
       <c r="G175" t="n">
-        <v>49.0811666666667</v>
+        <v>49.07633333333337</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>49.34</v>
       </c>
       <c r="F176" t="n">
-        <v>259.0506</v>
+        <v>10108.4944</v>
       </c>
       <c r="G176" t="n">
-        <v>49.08600000000003</v>
+        <v>49.0811666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6561,19 +6561,19 @@
         <v>49.34</v>
       </c>
       <c r="C177" t="n">
-        <v>49.3</v>
+        <v>49.34</v>
       </c>
       <c r="D177" t="n">
         <v>49.34</v>
       </c>
       <c r="E177" t="n">
-        <v>49.3</v>
+        <v>49.34</v>
       </c>
       <c r="F177" t="n">
-        <v>42.75</v>
+        <v>259.0506</v>
       </c>
       <c r="G177" t="n">
-        <v>49.0901666666667</v>
+        <v>49.08600000000003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>49.3</v>
+        <v>49.34</v>
       </c>
       <c r="C178" t="n">
         <v>49.3</v>
       </c>
       <c r="D178" t="n">
-        <v>49.3</v>
+        <v>49.34</v>
       </c>
       <c r="E178" t="n">
         <v>49.3</v>
       </c>
       <c r="F178" t="n">
-        <v>139.514</v>
+        <v>42.75</v>
       </c>
       <c r="G178" t="n">
-        <v>49.09433333333337</v>
+        <v>49.0901666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>49.25</v>
+        <v>49.3</v>
       </c>
       <c r="C179" t="n">
-        <v>49.25</v>
+        <v>49.3</v>
       </c>
       <c r="D179" t="n">
-        <v>49.25</v>
+        <v>49.3</v>
       </c>
       <c r="E179" t="n">
-        <v>49.25</v>
+        <v>49.3</v>
       </c>
       <c r="F179" t="n">
-        <v>41.3755</v>
+        <v>139.514</v>
       </c>
       <c r="G179" t="n">
-        <v>49.0976666666667</v>
+        <v>49.09433333333337</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +6675,10 @@
         <v>49.25</v>
       </c>
       <c r="F180" t="n">
-        <v>2297</v>
+        <v>41.3755</v>
       </c>
       <c r="G180" t="n">
-        <v>49.10100000000003</v>
+        <v>49.0976666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6701,19 @@
         <v>49.25</v>
       </c>
       <c r="C181" t="n">
-        <v>49.19</v>
+        <v>49.25</v>
       </c>
       <c r="D181" t="n">
         <v>49.25</v>
       </c>
       <c r="E181" t="n">
-        <v>49.19</v>
+        <v>49.25</v>
       </c>
       <c r="F181" t="n">
-        <v>4595.1451</v>
+        <v>2297</v>
       </c>
       <c r="G181" t="n">
-        <v>49.10333333333336</v>
+        <v>49.10100000000003</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>49.38</v>
+        <v>49.25</v>
       </c>
       <c r="C182" t="n">
-        <v>49.38</v>
+        <v>49.19</v>
       </c>
       <c r="D182" t="n">
-        <v>49.38</v>
+        <v>49.25</v>
       </c>
       <c r="E182" t="n">
-        <v>49.38</v>
+        <v>49.19</v>
       </c>
       <c r="F182" t="n">
-        <v>10100.296</v>
+        <v>4595.1451</v>
       </c>
       <c r="G182" t="n">
-        <v>49.10883333333336</v>
+        <v>49.10333333333336</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
       <c r="C183" t="n">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
       <c r="D183" t="n">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
       <c r="E183" t="n">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
       <c r="F183" t="n">
-        <v>500</v>
+        <v>10100.296</v>
       </c>
       <c r="G183" t="n">
-        <v>49.1186666666667</v>
+        <v>49.10883333333336</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>49.3</v>
+        <v>49.42</v>
       </c>
       <c r="C184" t="n">
-        <v>49.3</v>
+        <v>49.42</v>
       </c>
       <c r="D184" t="n">
-        <v>49.3</v>
+        <v>49.42</v>
       </c>
       <c r="E184" t="n">
-        <v>49.3</v>
+        <v>49.42</v>
       </c>
       <c r="F184" t="n">
-        <v>42840.5115</v>
+        <v>500</v>
       </c>
       <c r="G184" t="n">
-        <v>49.12650000000004</v>
+        <v>49.1186666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>49.3</v>
       </c>
       <c r="F185" t="n">
-        <v>5376.6673</v>
+        <v>42840.5115</v>
       </c>
       <c r="G185" t="n">
-        <v>49.1306666666667</v>
+        <v>49.12650000000004</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>49.32</v>
+        <v>49.3</v>
       </c>
       <c r="C186" t="n">
-        <v>49.32</v>
+        <v>49.3</v>
       </c>
       <c r="D186" t="n">
-        <v>49.32</v>
+        <v>49.3</v>
       </c>
       <c r="E186" t="n">
-        <v>49.32</v>
+        <v>49.3</v>
       </c>
       <c r="F186" t="n">
-        <v>28.131</v>
+        <v>5376.6673</v>
       </c>
       <c r="G186" t="n">
-        <v>49.13700000000004</v>
+        <v>49.1306666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>49.42</v>
+        <v>49.32</v>
       </c>
       <c r="C187" t="n">
-        <v>49.42</v>
+        <v>49.32</v>
       </c>
       <c r="D187" t="n">
-        <v>49.42</v>
+        <v>49.32</v>
       </c>
       <c r="E187" t="n">
-        <v>49.42</v>
+        <v>49.32</v>
       </c>
       <c r="F187" t="n">
-        <v>63.2071</v>
+        <v>28.131</v>
       </c>
       <c r="G187" t="n">
-        <v>49.14500000000003</v>
+        <v>49.13700000000004</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>49.32</v>
+        <v>49.42</v>
       </c>
       <c r="C188" t="n">
-        <v>49.17</v>
+        <v>49.42</v>
       </c>
       <c r="D188" t="n">
-        <v>49.32</v>
+        <v>49.42</v>
       </c>
       <c r="E188" t="n">
-        <v>49.17</v>
+        <v>49.42</v>
       </c>
       <c r="F188" t="n">
-        <v>2815.2211</v>
+        <v>63.2071</v>
       </c>
       <c r="G188" t="n">
-        <v>49.15233333333337</v>
+        <v>49.14500000000003</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="C189" t="n">
         <v>49.17</v>
       </c>
-      <c r="C189" t="n">
-        <v>49.16</v>
-      </c>
       <c r="D189" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="E189" t="n">
         <v>49.17</v>
       </c>
-      <c r="E189" t="n">
-        <v>49.16</v>
-      </c>
       <c r="F189" t="n">
-        <v>60.1589</v>
+        <v>2815.2211</v>
       </c>
       <c r="G189" t="n">
-        <v>49.15833333333337</v>
+        <v>49.15233333333337</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>49.17</v>
+      </c>
+      <c r="C190" t="n">
         <v>49.16</v>
       </c>
-      <c r="C190" t="n">
-        <v>49.12</v>
-      </c>
       <c r="D190" t="n">
+        <v>49.17</v>
+      </c>
+      <c r="E190" t="n">
         <v>49.16</v>
       </c>
-      <c r="E190" t="n">
-        <v>49.12</v>
-      </c>
       <c r="F190" t="n">
-        <v>875.3328</v>
+        <v>60.1589</v>
       </c>
       <c r="G190" t="n">
-        <v>49.15933333333336</v>
+        <v>49.15833333333337</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="C191" t="n">
         <v>49.12</v>
       </c>
-      <c r="C191" t="n">
-        <v>49.19</v>
-      </c>
       <c r="D191" t="n">
-        <v>49.19</v>
+        <v>49.16</v>
       </c>
       <c r="E191" t="n">
         <v>49.12</v>
       </c>
       <c r="F191" t="n">
-        <v>18254.138</v>
+        <v>875.3328</v>
       </c>
       <c r="G191" t="n">
-        <v>49.16150000000003</v>
+        <v>49.15933333333336</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7086,19 +7086,19 @@
         <v>49.12</v>
       </c>
       <c r="C192" t="n">
-        <v>48.97</v>
+        <v>49.19</v>
       </c>
       <c r="D192" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="E192" t="n">
         <v>49.12</v>
       </c>
-      <c r="E192" t="n">
-        <v>48.97</v>
-      </c>
       <c r="F192" t="n">
-        <v>24000</v>
+        <v>18254.138</v>
       </c>
       <c r="G192" t="n">
-        <v>49.15833333333337</v>
+        <v>49.16150000000003</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>49.11</v>
+        <v>49.12</v>
       </c>
       <c r="C193" t="n">
-        <v>49.13</v>
+        <v>48.97</v>
       </c>
       <c r="D193" t="n">
-        <v>49.13</v>
+        <v>49.12</v>
       </c>
       <c r="E193" t="n">
-        <v>49.11</v>
+        <v>48.97</v>
       </c>
       <c r="F193" t="n">
-        <v>25744.2175</v>
+        <v>24000</v>
       </c>
       <c r="G193" t="n">
-        <v>49.15900000000003</v>
+        <v>49.15833333333337</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>48.98</v>
+        <v>49.11</v>
       </c>
       <c r="C194" t="n">
-        <v>48.92</v>
+        <v>49.13</v>
       </c>
       <c r="D194" t="n">
-        <v>48.98</v>
+        <v>49.13</v>
       </c>
       <c r="E194" t="n">
-        <v>48.92</v>
+        <v>49.11</v>
       </c>
       <c r="F194" t="n">
-        <v>1562.1033</v>
+        <v>25744.2175</v>
       </c>
       <c r="G194" t="n">
-        <v>49.1581666666667</v>
+        <v>49.15900000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>49.21</v>
+        <v>48.98</v>
       </c>
       <c r="C195" t="n">
-        <v>49.21</v>
+        <v>48.92</v>
       </c>
       <c r="D195" t="n">
-        <v>49.21</v>
+        <v>48.98</v>
       </c>
       <c r="E195" t="n">
-        <v>49.21</v>
+        <v>48.92</v>
       </c>
       <c r="F195" t="n">
-        <v>3448.7543</v>
+        <v>1562.1033</v>
       </c>
       <c r="G195" t="n">
-        <v>49.15750000000003</v>
+        <v>49.1581666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="C196" t="n">
-        <v>49.22</v>
+        <v>49.21</v>
       </c>
       <c r="D196" t="n">
-        <v>49.3</v>
+        <v>49.21</v>
       </c>
       <c r="E196" t="n">
-        <v>49.22</v>
+        <v>49.21</v>
       </c>
       <c r="F196" t="n">
-        <v>2115.8884</v>
+        <v>3448.7543</v>
       </c>
       <c r="G196" t="n">
-        <v>49.15583333333336</v>
+        <v>49.15750000000003</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>49.3</v>
       </c>
       <c r="C197" t="n">
-        <v>49.3</v>
+        <v>49.22</v>
       </c>
       <c r="D197" t="n">
         <v>49.3</v>
       </c>
       <c r="E197" t="n">
-        <v>49.3</v>
+        <v>49.22</v>
       </c>
       <c r="F197" t="n">
-        <v>1414.2341</v>
+        <v>2115.8884</v>
       </c>
       <c r="G197" t="n">
-        <v>49.15500000000004</v>
+        <v>49.15583333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>49.28</v>
+        <v>49.3</v>
       </c>
       <c r="C198" t="n">
-        <v>49.28</v>
+        <v>49.3</v>
       </c>
       <c r="D198" t="n">
-        <v>49.28</v>
+        <v>49.3</v>
       </c>
       <c r="E198" t="n">
-        <v>49.28</v>
+        <v>49.3</v>
       </c>
       <c r="F198" t="n">
-        <v>1850.0369</v>
+        <v>1414.2341</v>
       </c>
       <c r="G198" t="n">
-        <v>49.15100000000004</v>
+        <v>49.15500000000004</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>49.21</v>
+        <v>49.28</v>
       </c>
       <c r="C199" t="n">
-        <v>49.21</v>
+        <v>49.28</v>
       </c>
       <c r="D199" t="n">
-        <v>49.21</v>
+        <v>49.28</v>
       </c>
       <c r="E199" t="n">
-        <v>49.21</v>
+        <v>49.28</v>
       </c>
       <c r="F199" t="n">
-        <v>315.1849</v>
+        <v>1850.0369</v>
       </c>
       <c r="G199" t="n">
-        <v>49.14683333333337</v>
+        <v>49.15100000000004</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>49.21</v>
       </c>
       <c r="F200" t="n">
-        <v>1079.1031</v>
+        <v>315.1849</v>
       </c>
       <c r="G200" t="n">
-        <v>49.14716666666671</v>
+        <v>49.14683333333337</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>49.21</v>
       </c>
       <c r="F201" t="n">
-        <v>20150.9217</v>
+        <v>1079.1031</v>
       </c>
       <c r="G201" t="n">
-        <v>49.14933333333337</v>
+        <v>49.14716666666671</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>49.37</v>
+        <v>49.21</v>
       </c>
       <c r="C202" t="n">
-        <v>49.37</v>
+        <v>49.21</v>
       </c>
       <c r="D202" t="n">
-        <v>49.37</v>
+        <v>49.21</v>
       </c>
       <c r="E202" t="n">
-        <v>49.37</v>
+        <v>49.21</v>
       </c>
       <c r="F202" t="n">
-        <v>1230</v>
+        <v>20150.9217</v>
       </c>
       <c r="G202" t="n">
-        <v>49.15433333333337</v>
+        <v>49.14933333333337</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>49.37</v>
       </c>
       <c r="F203" t="n">
-        <v>25</v>
+        <v>1230</v>
       </c>
       <c r="G203" t="n">
-        <v>49.15933333333336</v>
+        <v>49.15433333333337</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>49.28</v>
+        <v>49.37</v>
       </c>
       <c r="C204" t="n">
-        <v>49.28</v>
+        <v>49.37</v>
       </c>
       <c r="D204" t="n">
-        <v>49.28</v>
+        <v>49.37</v>
       </c>
       <c r="E204" t="n">
-        <v>49.28</v>
+        <v>49.37</v>
       </c>
       <c r="F204" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G204" t="n">
-        <v>49.16283333333336</v>
+        <v>49.15933333333336</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>49.13</v>
+        <v>49.28</v>
       </c>
       <c r="C205" t="n">
-        <v>49.13</v>
+        <v>49.28</v>
       </c>
       <c r="D205" t="n">
-        <v>49.13</v>
+        <v>49.28</v>
       </c>
       <c r="E205" t="n">
-        <v>49.13</v>
+        <v>49.28</v>
       </c>
       <c r="F205" t="n">
-        <v>518.3927</v>
+        <v>11</v>
       </c>
       <c r="G205" t="n">
-        <v>49.16483333333336</v>
+        <v>49.16283333333336</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>518.3927</v>
       </c>
       <c r="G206" t="n">
-        <v>49.16683333333336</v>
+        <v>49.16483333333336</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>49.25</v>
+        <v>49.13</v>
       </c>
       <c r="C207" t="n">
-        <v>49.25</v>
+        <v>49.13</v>
       </c>
       <c r="D207" t="n">
-        <v>49.25</v>
+        <v>49.13</v>
       </c>
       <c r="E207" t="n">
-        <v>49.25</v>
+        <v>49.13</v>
       </c>
       <c r="F207" t="n">
-        <v>1000</v>
+        <v>518.3927</v>
       </c>
       <c r="G207" t="n">
-        <v>49.17083333333336</v>
+        <v>49.16683333333336</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>1000</v>
       </c>
       <c r="G208" t="n">
-        <v>49.17483333333335</v>
+        <v>49.17083333333336</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,19 +7678,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>49.14</v>
+        <v>49.25</v>
       </c>
       <c r="C209" t="n">
-        <v>49.14</v>
+        <v>49.25</v>
       </c>
       <c r="D209" t="n">
-        <v>49.14</v>
+        <v>49.25</v>
       </c>
       <c r="E209" t="n">
-        <v>49.14</v>
+        <v>49.25</v>
       </c>
       <c r="F209" t="n">
-        <v>4715.7944</v>
+        <v>1000</v>
       </c>
       <c r="G209" t="n">
         <v>49.17483333333335</v>
@@ -7716,19 +7716,19 @@
         <v>49.14</v>
       </c>
       <c r="C210" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="D210" t="n">
         <v>49.14</v>
       </c>
       <c r="E210" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="F210" t="n">
-        <v>10019.4055</v>
+        <v>4715.7944</v>
       </c>
       <c r="G210" t="n">
-        <v>49.17683333333335</v>
+        <v>49.17483333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="C211" t="n">
         <v>49.13</v>
       </c>
       <c r="D211" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="E211" t="n">
         <v>49.13</v>
       </c>
       <c r="F211" t="n">
-        <v>741.9999</v>
+        <v>10019.4055</v>
       </c>
       <c r="G211" t="n">
-        <v>49.17883333333335</v>
+        <v>49.17683333333335</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>49.04</v>
+        <v>49.13</v>
       </c>
       <c r="C212" t="n">
-        <v>49.04</v>
+        <v>49.13</v>
       </c>
       <c r="D212" t="n">
-        <v>49.04</v>
+        <v>49.13</v>
       </c>
       <c r="E212" t="n">
-        <v>49.04</v>
+        <v>49.13</v>
       </c>
       <c r="F212" t="n">
-        <v>4151.6893</v>
+        <v>741.9999</v>
       </c>
       <c r="G212" t="n">
-        <v>49.17933333333335</v>
+        <v>49.17883333333335</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>49.04</v>
       </c>
       <c r="F213" t="n">
-        <v>758.0929</v>
+        <v>4151.6893</v>
       </c>
       <c r="G213" t="n">
         <v>49.17933333333335</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>48.92</v>
+        <v>49.04</v>
       </c>
       <c r="C214" t="n">
-        <v>48.92</v>
+        <v>49.04</v>
       </c>
       <c r="D214" t="n">
-        <v>48.92</v>
+        <v>49.04</v>
       </c>
       <c r="E214" t="n">
-        <v>48.92</v>
+        <v>49.04</v>
       </c>
       <c r="F214" t="n">
-        <v>2695.9463</v>
+        <v>758.0929</v>
       </c>
       <c r="G214" t="n">
-        <v>49.18016666666668</v>
+        <v>49.17933333333335</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="C215" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="D215" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="E215" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="F215" t="n">
-        <v>182.0546</v>
+        <v>2695.9463</v>
       </c>
       <c r="G215" t="n">
-        <v>49.17933333333335</v>
+        <v>49.18016666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>48.92</v>
+        <v>48.82</v>
       </c>
       <c r="C216" t="n">
-        <v>48.92</v>
+        <v>48.82</v>
       </c>
       <c r="D216" t="n">
-        <v>48.92</v>
+        <v>48.82</v>
       </c>
       <c r="E216" t="n">
-        <v>48.92</v>
+        <v>48.82</v>
       </c>
       <c r="F216" t="n">
-        <v>502.2709</v>
+        <v>182.0546</v>
       </c>
       <c r="G216" t="n">
-        <v>49.18300000000002</v>
+        <v>49.17933333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>48.92</v>
       </c>
       <c r="F217" t="n">
-        <v>81.0411</v>
+        <v>502.2709</v>
       </c>
       <c r="G217" t="n">
-        <v>49.18283333333336</v>
+        <v>49.18300000000002</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>49.14</v>
+        <v>48.92</v>
       </c>
       <c r="C218" t="n">
-        <v>49.14</v>
+        <v>48.92</v>
       </c>
       <c r="D218" t="n">
-        <v>49.14</v>
+        <v>48.92</v>
       </c>
       <c r="E218" t="n">
-        <v>49.14</v>
+        <v>48.92</v>
       </c>
       <c r="F218" t="n">
-        <v>373.4784</v>
+        <v>81.0411</v>
       </c>
       <c r="G218" t="n">
-        <v>49.18633333333336</v>
+        <v>49.18283333333336</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>49.03</v>
+        <v>49.14</v>
       </c>
       <c r="C219" t="n">
-        <v>48.98</v>
+        <v>49.14</v>
       </c>
       <c r="D219" t="n">
-        <v>49.03</v>
+        <v>49.14</v>
       </c>
       <c r="E219" t="n">
-        <v>48.98</v>
+        <v>49.14</v>
       </c>
       <c r="F219" t="n">
-        <v>1172.5</v>
+        <v>373.4784</v>
       </c>
       <c r="G219" t="n">
-        <v>49.19100000000003</v>
+        <v>49.18633333333336</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>49</v>
+        <v>49.03</v>
       </c>
       <c r="C220" t="n">
-        <v>49</v>
+        <v>48.98</v>
       </c>
       <c r="D220" t="n">
-        <v>49</v>
+        <v>49.03</v>
       </c>
       <c r="E220" t="n">
-        <v>49</v>
+        <v>48.98</v>
       </c>
       <c r="F220" t="n">
-        <v>865.2469</v>
+        <v>1172.5</v>
       </c>
       <c r="G220" t="n">
-        <v>49.19433333333336</v>
+        <v>49.19100000000003</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>49.11</v>
+        <v>49</v>
       </c>
       <c r="C221" t="n">
-        <v>48.92</v>
+        <v>49</v>
       </c>
       <c r="D221" t="n">
-        <v>49.11</v>
+        <v>49</v>
       </c>
       <c r="E221" t="n">
-        <v>48.92</v>
+        <v>49</v>
       </c>
       <c r="F221" t="n">
-        <v>921</v>
+        <v>865.2469</v>
       </c>
       <c r="G221" t="n">
-        <v>49.19633333333336</v>
+        <v>49.19433333333336</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>48.9</v>
+        <v>49.11</v>
       </c>
       <c r="C222" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="D222" t="n">
-        <v>48.9</v>
+        <v>49.11</v>
       </c>
       <c r="E222" t="n">
-        <v>48.82</v>
+        <v>48.92</v>
       </c>
       <c r="F222" t="n">
-        <v>1387.4422</v>
+        <v>921</v>
       </c>
       <c r="G222" t="n">
-        <v>49.19016666666669</v>
+        <v>49.19633333333336</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C223" t="n">
-        <v>49</v>
+        <v>48.82</v>
       </c>
       <c r="D223" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E223" t="n">
-        <v>49</v>
+        <v>48.82</v>
       </c>
       <c r="F223" t="n">
-        <v>36.6453</v>
+        <v>1387.4422</v>
       </c>
       <c r="G223" t="n">
-        <v>49.1866666666667</v>
+        <v>49.19016666666669</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>49</v>
       </c>
       <c r="F224" t="n">
-        <v>11.7854</v>
+        <v>36.6453</v>
       </c>
       <c r="G224" t="n">
-        <v>49.18166666666669</v>
+        <v>49.1866666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>49.15</v>
+        <v>49</v>
       </c>
       <c r="C225" t="n">
-        <v>49.15</v>
+        <v>49</v>
       </c>
       <c r="D225" t="n">
-        <v>49.15</v>
+        <v>49</v>
       </c>
       <c r="E225" t="n">
-        <v>49.15</v>
+        <v>49</v>
       </c>
       <c r="F225" t="n">
-        <v>27.4783</v>
+        <v>11.7854</v>
       </c>
       <c r="G225" t="n">
-        <v>49.17916666666669</v>
+        <v>49.18166666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>49</v>
+        <v>49.15</v>
       </c>
       <c r="C226" t="n">
-        <v>49</v>
+        <v>49.15</v>
       </c>
       <c r="D226" t="n">
-        <v>49</v>
+        <v>49.15</v>
       </c>
       <c r="E226" t="n">
-        <v>49</v>
+        <v>49.15</v>
       </c>
       <c r="F226" t="n">
-        <v>1221.4362</v>
+        <v>27.4783</v>
       </c>
       <c r="G226" t="n">
-        <v>49.17600000000002</v>
+        <v>49.17916666666669</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>49</v>
       </c>
       <c r="F227" t="n">
-        <v>44.67346938</v>
+        <v>1221.4362</v>
       </c>
       <c r="G227" t="n">
-        <v>49.16933333333336</v>
+        <v>49.17600000000002</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>48.82</v>
+        <v>49</v>
       </c>
       <c r="C228" t="n">
-        <v>48.82</v>
+        <v>49</v>
       </c>
       <c r="D228" t="n">
-        <v>48.82</v>
+        <v>49</v>
       </c>
       <c r="E228" t="n">
-        <v>48.82</v>
+        <v>49</v>
       </c>
       <c r="F228" t="n">
-        <v>71</v>
+        <v>44.67346938</v>
       </c>
       <c r="G228" t="n">
-        <v>49.15966666666669</v>
+        <v>49.16933333333336</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,10 +8390,10 @@
         <v>48.82</v>
       </c>
       <c r="F229" t="n">
-        <v>14.7558</v>
+        <v>71</v>
       </c>
       <c r="G229" t="n">
-        <v>49.15166666666669</v>
+        <v>49.15966666666669</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>48.78</v>
+        <v>48.82</v>
       </c>
       <c r="C230" t="n">
-        <v>48.78</v>
+        <v>48.82</v>
       </c>
       <c r="D230" t="n">
-        <v>48.78</v>
+        <v>48.82</v>
       </c>
       <c r="E230" t="n">
-        <v>48.78</v>
+        <v>48.82</v>
       </c>
       <c r="F230" t="n">
-        <v>256.6909</v>
+        <v>14.7558</v>
       </c>
       <c r="G230" t="n">
-        <v>49.14466666666669</v>
+        <v>49.15166666666669</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>48.78</v>
       </c>
       <c r="F231" t="n">
-        <v>7.387</v>
+        <v>256.6909</v>
       </c>
       <c r="G231" t="n">
-        <v>49.13783333333336</v>
+        <v>49.14466666666669</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>48.71</v>
+        <v>48.78</v>
       </c>
       <c r="C232" t="n">
-        <v>48.71</v>
+        <v>48.78</v>
       </c>
       <c r="D232" t="n">
-        <v>48.71</v>
+        <v>48.78</v>
       </c>
       <c r="E232" t="n">
-        <v>48.71</v>
+        <v>48.78</v>
       </c>
       <c r="F232" t="n">
-        <v>23256.1751</v>
+        <v>7.387</v>
       </c>
       <c r="G232" t="n">
-        <v>49.12983333333337</v>
+        <v>49.13783333333336</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8530,10 +8530,10 @@
         <v>48.71</v>
       </c>
       <c r="F233" t="n">
-        <v>4418.0558</v>
+        <v>23256.1751</v>
       </c>
       <c r="G233" t="n">
-        <v>49.12050000000003</v>
+        <v>49.12983333333337</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8565,10 +8565,10 @@
         <v>48.71</v>
       </c>
       <c r="F234" t="n">
-        <v>9231.0708</v>
+        <v>4418.0558</v>
       </c>
       <c r="G234" t="n">
-        <v>49.10983333333336</v>
+        <v>49.12050000000003</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>48.71</v>
       </c>
       <c r="F235" t="n">
-        <v>1853.9725</v>
+        <v>9231.0708</v>
       </c>
       <c r="G235" t="n">
-        <v>49.09933333333336</v>
+        <v>49.10983333333336</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8635,10 +8635,10 @@
         <v>48.71</v>
       </c>
       <c r="F236" t="n">
-        <v>6000</v>
+        <v>1853.9725</v>
       </c>
       <c r="G236" t="n">
-        <v>49.08883333333336</v>
+        <v>49.09933333333336</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>48.7</v>
+        <v>48.71</v>
       </c>
       <c r="C237" t="n">
-        <v>48.67</v>
+        <v>48.71</v>
       </c>
       <c r="D237" t="n">
-        <v>48.7</v>
+        <v>48.71</v>
       </c>
       <c r="E237" t="n">
-        <v>48.67</v>
+        <v>48.71</v>
       </c>
       <c r="F237" t="n">
-        <v>19926.2525</v>
+        <v>6000</v>
       </c>
       <c r="G237" t="n">
-        <v>49.07833333333336</v>
+        <v>49.08883333333336</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>48.67</v>
+        <v>48.7</v>
       </c>
       <c r="C238" t="n">
         <v>48.67</v>
       </c>
       <c r="D238" t="n">
-        <v>48.67</v>
+        <v>48.7</v>
       </c>
       <c r="E238" t="n">
         <v>48.67</v>
       </c>
       <c r="F238" t="n">
-        <v>59.6647</v>
+        <v>19926.2525</v>
       </c>
       <c r="G238" t="n">
-        <v>49.06783333333336</v>
+        <v>49.07833333333336</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8731,19 +8731,19 @@
         <v>48.67</v>
       </c>
       <c r="C239" t="n">
-        <v>48.55</v>
+        <v>48.67</v>
       </c>
       <c r="D239" t="n">
         <v>48.67</v>
       </c>
       <c r="E239" t="n">
-        <v>48.55</v>
+        <v>48.67</v>
       </c>
       <c r="F239" t="n">
-        <v>44000</v>
+        <v>59.6647</v>
       </c>
       <c r="G239" t="n">
-        <v>49.0561666666667</v>
+        <v>49.06783333333336</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>48.76</v>
+        <v>48.67</v>
       </c>
       <c r="C240" t="n">
-        <v>48.76</v>
+        <v>48.55</v>
       </c>
       <c r="D240" t="n">
-        <v>48.76</v>
+        <v>48.67</v>
       </c>
       <c r="E240" t="n">
-        <v>48.76</v>
+        <v>48.55</v>
       </c>
       <c r="F240" t="n">
-        <v>51.8981</v>
+        <v>44000</v>
       </c>
       <c r="G240" t="n">
-        <v>49.04800000000003</v>
+        <v>49.0561666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>48.73</v>
+        <v>48.76</v>
       </c>
       <c r="C241" t="n">
-        <v>48.73</v>
+        <v>48.76</v>
       </c>
       <c r="D241" t="n">
-        <v>48.73</v>
+        <v>48.76</v>
       </c>
       <c r="E241" t="n">
-        <v>48.73</v>
+        <v>48.76</v>
       </c>
       <c r="F241" t="n">
-        <v>7874.5052</v>
+        <v>51.8981</v>
       </c>
       <c r="G241" t="n">
-        <v>49.04033333333336</v>
+        <v>49.04800000000003</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>48.5</v>
+        <v>48.73</v>
       </c>
       <c r="C242" t="n">
-        <v>48.5</v>
+        <v>48.73</v>
       </c>
       <c r="D242" t="n">
-        <v>48.5</v>
+        <v>48.73</v>
       </c>
       <c r="E242" t="n">
-        <v>48.5</v>
+        <v>48.73</v>
       </c>
       <c r="F242" t="n">
-        <v>19014.8612</v>
+        <v>7874.5052</v>
       </c>
       <c r="G242" t="n">
-        <v>49.02566666666669</v>
+        <v>49.04033333333336</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C243" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D243" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E243" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F243" t="n">
-        <v>12000</v>
+        <v>19014.8612</v>
       </c>
       <c r="G243" t="n">
-        <v>49.0086666666667</v>
+        <v>49.02566666666669</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8915,10 +8915,10 @@
         <v>48.4</v>
       </c>
       <c r="F244" t="n">
-        <v>24520</v>
+        <v>12000</v>
       </c>
       <c r="G244" t="n">
-        <v>48.9936666666667</v>
+        <v>49.0086666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8950,10 +8950,10 @@
         <v>48.4</v>
       </c>
       <c r="F245" t="n">
-        <v>14857.8302</v>
+        <v>24520</v>
       </c>
       <c r="G245" t="n">
-        <v>48.97866666666669</v>
+        <v>48.9936666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8976,19 +8976,19 @@
         <v>48.4</v>
       </c>
       <c r="C246" t="n">
-        <v>48.55</v>
+        <v>48.4</v>
       </c>
       <c r="D246" t="n">
-        <v>48.55</v>
+        <v>48.4</v>
       </c>
       <c r="E246" t="n">
         <v>48.4</v>
       </c>
       <c r="F246" t="n">
-        <v>20.5974</v>
+        <v>14857.8302</v>
       </c>
       <c r="G246" t="n">
-        <v>48.96583333333336</v>
+        <v>48.97866666666669</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,35 +9008,31 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>48.64</v>
+        <v>48.4</v>
       </c>
       <c r="C247" t="n">
-        <v>48.64</v>
+        <v>48.55</v>
       </c>
       <c r="D247" t="n">
-        <v>48.64</v>
+        <v>48.55</v>
       </c>
       <c r="E247" t="n">
-        <v>48.64</v>
+        <v>48.4</v>
       </c>
       <c r="F247" t="n">
-        <v>11</v>
+        <v>20.5974</v>
       </c>
       <c r="G247" t="n">
-        <v>48.95283333333336</v>
+        <v>48.96583333333336</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="K247" t="n">
-        <v>48.55</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
@@ -9047,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>48.37</v>
+        <v>48.64</v>
       </c>
       <c r="C248" t="n">
-        <v>48.37</v>
+        <v>48.64</v>
       </c>
       <c r="D248" t="n">
-        <v>48.37</v>
+        <v>48.64</v>
       </c>
       <c r="E248" t="n">
-        <v>48.37</v>
+        <v>48.64</v>
       </c>
       <c r="F248" t="n">
-        <v>7369.2001</v>
+        <v>11</v>
       </c>
       <c r="G248" t="n">
-        <v>48.93950000000002</v>
+        <v>48.95283333333336</v>
       </c>
       <c r="H248" t="n">
         <v>1</v>
@@ -9071,16 +9067,12 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>48.64</v>
+        <v>48.55</v>
       </c>
       <c r="K248" t="n">
         <v>48.55</v>
       </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9090,32 +9082,30 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>48.6</v>
+        <v>48.37</v>
       </c>
       <c r="C249" t="n">
-        <v>48.6</v>
+        <v>48.37</v>
       </c>
       <c r="D249" t="n">
-        <v>48.6</v>
+        <v>48.37</v>
       </c>
       <c r="E249" t="n">
-        <v>48.6</v>
+        <v>48.37</v>
       </c>
       <c r="F249" t="n">
-        <v>3218.5606</v>
+        <v>7369.2001</v>
       </c>
       <c r="G249" t="n">
-        <v>48.93016666666669</v>
+        <v>48.93950000000002</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>48.37</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
         <v>48.55</v>
       </c>
@@ -9133,22 +9123,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>48.63</v>
+        <v>48.6</v>
       </c>
       <c r="C250" t="n">
-        <v>48.66</v>
+        <v>48.6</v>
       </c>
       <c r="D250" t="n">
-        <v>48.66</v>
+        <v>48.6</v>
       </c>
       <c r="E250" t="n">
-        <v>48.63</v>
+        <v>48.6</v>
       </c>
       <c r="F250" t="n">
-        <v>62476.1807</v>
+        <v>3218.5606</v>
       </c>
       <c r="G250" t="n">
-        <v>48.92250000000002</v>
+        <v>48.93016666666669</v>
       </c>
       <c r="H250" t="n">
         <v>1</v>
@@ -9157,12 +9147,16 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>48.6</v>
+        <v>48.37</v>
       </c>
       <c r="K250" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="L250" t="inlineStr"/>
+        <v>48.55</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9172,40 +9166,32 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>48.78</v>
+        <v>48.63</v>
       </c>
       <c r="C251" t="n">
-        <v>48.78</v>
+        <v>48.66</v>
       </c>
       <c r="D251" t="n">
-        <v>48.78</v>
+        <v>48.66</v>
       </c>
       <c r="E251" t="n">
-        <v>48.76</v>
+        <v>48.63</v>
       </c>
       <c r="F251" t="n">
-        <v>12184.9026</v>
+        <v>62476.1807</v>
       </c>
       <c r="G251" t="n">
-        <v>48.91566666666669</v>
+        <v>48.92250000000002</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="K251" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9215,40 +9201,32 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>48.79</v>
+        <v>48.78</v>
       </c>
       <c r="C252" t="n">
         <v>48.78</v>
       </c>
       <c r="D252" t="n">
-        <v>48.79</v>
+        <v>48.78</v>
       </c>
       <c r="E252" t="n">
-        <v>48.78</v>
+        <v>48.76</v>
       </c>
       <c r="F252" t="n">
-        <v>5296.7101</v>
+        <v>12184.9026</v>
       </c>
       <c r="G252" t="n">
-        <v>48.91250000000003</v>
+        <v>48.91566666666669</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="K252" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9258,22 +9236,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="C253" t="n">
         <v>48.78</v>
       </c>
-      <c r="C253" t="n">
-        <v>48.62</v>
-      </c>
       <c r="D253" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="E253" t="n">
         <v>48.78</v>
       </c>
-      <c r="E253" t="n">
-        <v>48.62</v>
-      </c>
       <c r="F253" t="n">
-        <v>20312.8249</v>
+        <v>5296.7101</v>
       </c>
       <c r="G253" t="n">
-        <v>48.90400000000002</v>
+        <v>48.91250000000003</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9293,22 +9271,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>48.83</v>
+        <v>48.78</v>
       </c>
       <c r="C254" t="n">
-        <v>48.84</v>
+        <v>48.62</v>
       </c>
       <c r="D254" t="n">
-        <v>48.84</v>
+        <v>48.78</v>
       </c>
       <c r="E254" t="n">
-        <v>48.83</v>
+        <v>48.62</v>
       </c>
       <c r="F254" t="n">
-        <v>5366.09749881</v>
+        <v>20312.8249</v>
       </c>
       <c r="G254" t="n">
-        <v>48.9026666666667</v>
+        <v>48.90400000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9328,22 +9306,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>48.7</v>
+        <v>48.83</v>
       </c>
       <c r="C255" t="n">
-        <v>48.61</v>
+        <v>48.84</v>
       </c>
       <c r="D255" t="n">
-        <v>48.7</v>
+        <v>48.84</v>
       </c>
       <c r="E255" t="n">
-        <v>48.61</v>
+        <v>48.83</v>
       </c>
       <c r="F255" t="n">
-        <v>16200</v>
+        <v>5366.09749881</v>
       </c>
       <c r="G255" t="n">
-        <v>48.8926666666667</v>
+        <v>48.9026666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9363,22 +9341,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>48.79</v>
+        <v>48.7</v>
       </c>
       <c r="C256" t="n">
-        <v>48.79</v>
+        <v>48.61</v>
       </c>
       <c r="D256" t="n">
-        <v>48.79</v>
+        <v>48.7</v>
       </c>
       <c r="E256" t="n">
-        <v>48.79</v>
+        <v>48.61</v>
       </c>
       <c r="F256" t="n">
-        <v>2000</v>
+        <v>16200</v>
       </c>
       <c r="G256" t="n">
-        <v>48.88550000000003</v>
+        <v>48.8926666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9398,22 +9376,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>48.77</v>
+        <v>48.79</v>
       </c>
       <c r="C257" t="n">
-        <v>48.77</v>
+        <v>48.79</v>
       </c>
       <c r="D257" t="n">
-        <v>48.77</v>
+        <v>48.79</v>
       </c>
       <c r="E257" t="n">
-        <v>48.77</v>
+        <v>48.79</v>
       </c>
       <c r="F257" t="n">
-        <v>1404</v>
+        <v>2000</v>
       </c>
       <c r="G257" t="n">
-        <v>48.87666666666669</v>
+        <v>48.88550000000003</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9433,22 +9411,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>48.52</v>
+        <v>48.77</v>
       </c>
       <c r="C258" t="n">
-        <v>48.52</v>
+        <v>48.77</v>
       </c>
       <c r="D258" t="n">
-        <v>48.52</v>
+        <v>48.77</v>
       </c>
       <c r="E258" t="n">
-        <v>48.52</v>
+        <v>48.77</v>
       </c>
       <c r="F258" t="n">
-        <v>1928.5811</v>
+        <v>1404</v>
       </c>
       <c r="G258" t="n">
-        <v>48.86400000000003</v>
+        <v>48.87666666666669</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9471,19 +9449,19 @@
         <v>48.52</v>
       </c>
       <c r="C259" t="n">
-        <v>48.82</v>
+        <v>48.52</v>
       </c>
       <c r="D259" t="n">
-        <v>48.82</v>
+        <v>48.52</v>
       </c>
       <c r="E259" t="n">
-        <v>48.5</v>
+        <v>48.52</v>
       </c>
       <c r="F259" t="n">
-        <v>51263.9577</v>
+        <v>1928.5811</v>
       </c>
       <c r="G259" t="n">
-        <v>48.85750000000003</v>
+        <v>48.86400000000003</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9503,22 +9481,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>48.68</v>
+        <v>48.52</v>
       </c>
       <c r="C260" t="n">
-        <v>48.67</v>
+        <v>48.82</v>
       </c>
       <c r="D260" t="n">
-        <v>48.68</v>
+        <v>48.82</v>
       </c>
       <c r="E260" t="n">
-        <v>48.67</v>
+        <v>48.5</v>
       </c>
       <c r="F260" t="n">
-        <v>2024.3505</v>
+        <v>51263.9577</v>
       </c>
       <c r="G260" t="n">
-        <v>48.84850000000003</v>
+        <v>48.85750000000003</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9538,22 +9516,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>48.67</v>
+        <v>48.68</v>
       </c>
       <c r="C261" t="n">
         <v>48.67</v>
       </c>
       <c r="D261" t="n">
-        <v>48.67</v>
+        <v>48.68</v>
       </c>
       <c r="E261" t="n">
         <v>48.67</v>
       </c>
       <c r="F261" t="n">
-        <v>70.31319999999999</v>
+        <v>2024.3505</v>
       </c>
       <c r="G261" t="n">
-        <v>48.83950000000003</v>
+        <v>48.84850000000003</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9585,10 +9563,10 @@
         <v>48.67</v>
       </c>
       <c r="F262" t="n">
-        <v>91.8133</v>
+        <v>70.31319999999999</v>
       </c>
       <c r="G262" t="n">
-        <v>48.82783333333337</v>
+        <v>48.83950000000003</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9611,19 +9589,19 @@
         <v>48.67</v>
       </c>
       <c r="C263" t="n">
-        <v>48.5</v>
+        <v>48.67</v>
       </c>
       <c r="D263" t="n">
         <v>48.67</v>
       </c>
       <c r="E263" t="n">
-        <v>48.5</v>
+        <v>48.67</v>
       </c>
       <c r="F263" t="n">
-        <v>318.44</v>
+        <v>91.8133</v>
       </c>
       <c r="G263" t="n">
-        <v>48.81333333333337</v>
+        <v>48.82783333333337</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9643,22 +9621,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>48.5</v>
+        <v>48.67</v>
       </c>
       <c r="C264" t="n">
         <v>48.5</v>
       </c>
       <c r="D264" t="n">
-        <v>48.5</v>
+        <v>48.67</v>
       </c>
       <c r="E264" t="n">
         <v>48.5</v>
       </c>
       <c r="F264" t="n">
-        <v>1261.5316</v>
+        <v>318.44</v>
       </c>
       <c r="G264" t="n">
-        <v>48.80033333333336</v>
+        <v>48.81333333333337</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9678,22 +9656,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C265" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D265" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E265" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F265" t="n">
-        <v>639.486</v>
+        <v>1261.5316</v>
       </c>
       <c r="G265" t="n">
-        <v>48.7881666666667</v>
+        <v>48.80033333333336</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9725,10 +9703,10 @@
         <v>48.4</v>
       </c>
       <c r="F266" t="n">
-        <v>9.1236</v>
+        <v>639.486</v>
       </c>
       <c r="G266" t="n">
-        <v>48.77600000000003</v>
+        <v>48.7881666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9748,22 +9726,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="C267" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D267" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E267" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F267" t="n">
-        <v>1545.5015</v>
+        <v>9.1236</v>
       </c>
       <c r="G267" t="n">
-        <v>48.76516666666669</v>
+        <v>48.77600000000003</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9786,19 +9764,19 @@
         <v>48.6</v>
       </c>
       <c r="C268" t="n">
-        <v>48.49</v>
+        <v>48.6</v>
       </c>
       <c r="D268" t="n">
         <v>48.6</v>
       </c>
       <c r="E268" t="n">
-        <v>48.49</v>
+        <v>48.6</v>
       </c>
       <c r="F268" t="n">
-        <v>1346.7</v>
+        <v>1545.5015</v>
       </c>
       <c r="G268" t="n">
-        <v>48.75250000000003</v>
+        <v>48.76516666666669</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9818,22 +9796,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>48.36</v>
+        <v>48.6</v>
       </c>
       <c r="C269" t="n">
-        <v>48.31</v>
+        <v>48.49</v>
       </c>
       <c r="D269" t="n">
-        <v>48.36</v>
+        <v>48.6</v>
       </c>
       <c r="E269" t="n">
-        <v>48.31</v>
+        <v>48.49</v>
       </c>
       <c r="F269" t="n">
-        <v>35350</v>
+        <v>1346.7</v>
       </c>
       <c r="G269" t="n">
-        <v>48.7386666666667</v>
+        <v>48.75250000000003</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9853,32 +9831,38 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>48.44</v>
+        <v>48.36</v>
       </c>
       <c r="C270" t="n">
-        <v>48.44</v>
+        <v>48.31</v>
       </c>
       <c r="D270" t="n">
-        <v>48.44</v>
+        <v>48.36</v>
       </c>
       <c r="E270" t="n">
-        <v>48.44</v>
+        <v>48.31</v>
       </c>
       <c r="F270" t="n">
-        <v>3000</v>
+        <v>35350</v>
       </c>
       <c r="G270" t="n">
-        <v>48.72716666666669</v>
+        <v>48.7386666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>48.49</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +9872,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>48.31</v>
+        <v>48.44</v>
       </c>
       <c r="C271" t="n">
         <v>48.44</v>
@@ -9897,23 +9881,29 @@
         <v>48.44</v>
       </c>
       <c r="E271" t="n">
-        <v>48.26</v>
+        <v>48.44</v>
       </c>
       <c r="F271" t="n">
-        <v>7855.40385838</v>
+        <v>3000</v>
       </c>
       <c r="G271" t="n">
-        <v>48.71566666666669</v>
+        <v>48.72716666666669</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>48.31</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9923,22 +9913,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>48.3</v>
+        <v>48.31</v>
       </c>
       <c r="C272" t="n">
-        <v>48.3</v>
+        <v>48.44</v>
       </c>
       <c r="D272" t="n">
-        <v>48.3</v>
+        <v>48.44</v>
       </c>
       <c r="E272" t="n">
-        <v>48.3</v>
+        <v>48.26</v>
       </c>
       <c r="F272" t="n">
-        <v>303.8367</v>
+        <v>7855.40385838</v>
       </c>
       <c r="G272" t="n">
-        <v>48.70333333333336</v>
+        <v>48.71566666666669</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9948,7 +9938,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9958,32 +9952,38 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>48.43</v>
+        <v>48.3</v>
       </c>
       <c r="C273" t="n">
-        <v>48.43</v>
+        <v>48.3</v>
       </c>
       <c r="D273" t="n">
-        <v>48.43</v>
+        <v>48.3</v>
       </c>
       <c r="E273" t="n">
-        <v>48.43</v>
+        <v>48.3</v>
       </c>
       <c r="F273" t="n">
-        <v>54</v>
+        <v>303.8367</v>
       </c>
       <c r="G273" t="n">
-        <v>48.69316666666669</v>
+        <v>48.70333333333336</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>48.44</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9993,32 +9993,38 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>48.26</v>
+        <v>48.43</v>
       </c>
       <c r="C274" t="n">
-        <v>48.42</v>
+        <v>48.43</v>
       </c>
       <c r="D274" t="n">
-        <v>48.42</v>
+        <v>48.43</v>
       </c>
       <c r="E274" t="n">
-        <v>48.26</v>
+        <v>48.43</v>
       </c>
       <c r="F274" t="n">
-        <v>894</v>
+        <v>54</v>
       </c>
       <c r="G274" t="n">
-        <v>48.68483333333336</v>
+        <v>48.69316666666669</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>48.3</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10028,32 +10034,38 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>48.37</v>
+        <v>48.26</v>
       </c>
       <c r="C275" t="n">
-        <v>48.37</v>
+        <v>48.42</v>
       </c>
       <c r="D275" t="n">
-        <v>48.37</v>
+        <v>48.42</v>
       </c>
       <c r="E275" t="n">
-        <v>48.37</v>
+        <v>48.26</v>
       </c>
       <c r="F275" t="n">
-        <v>209983.5232</v>
+        <v>894</v>
       </c>
       <c r="G275" t="n">
-        <v>48.67733333333335</v>
+        <v>48.68483333333336</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>48.43</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10072,23 +10084,29 @@
         <v>48.37</v>
       </c>
       <c r="E276" t="n">
-        <v>48.36</v>
+        <v>48.37</v>
       </c>
       <c r="F276" t="n">
-        <v>17982.3701</v>
+        <v>209983.5232</v>
       </c>
       <c r="G276" t="n">
-        <v>48.66816666666669</v>
+        <v>48.67733333333335</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>48.42</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10107,13 +10125,13 @@
         <v>48.37</v>
       </c>
       <c r="E277" t="n">
-        <v>48.37</v>
+        <v>48.36</v>
       </c>
       <c r="F277" t="n">
-        <v>113941.9943</v>
+        <v>17982.3701</v>
       </c>
       <c r="G277" t="n">
-        <v>48.65900000000001</v>
+        <v>48.66816666666669</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10123,7 +10141,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10145,10 +10167,10 @@
         <v>48.37</v>
       </c>
       <c r="F278" t="n">
-        <v>350651.5709</v>
+        <v>113941.9943</v>
       </c>
       <c r="G278" t="n">
-        <v>48.64616666666668</v>
+        <v>48.65900000000001</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10158,7 +10180,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10168,22 +10194,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>48.45</v>
+        <v>48.37</v>
       </c>
       <c r="C279" t="n">
-        <v>48.45</v>
+        <v>48.37</v>
       </c>
       <c r="D279" t="n">
-        <v>48.45</v>
+        <v>48.37</v>
       </c>
       <c r="E279" t="n">
-        <v>48.45</v>
+        <v>48.37</v>
       </c>
       <c r="F279" t="n">
-        <v>45424.1287</v>
+        <v>350651.5709</v>
       </c>
       <c r="G279" t="n">
-        <v>48.63733333333334</v>
+        <v>48.64616666666668</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10193,7 +10219,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10215,10 +10245,10 @@
         <v>48.45</v>
       </c>
       <c r="F280" t="n">
-        <v>75362.1281</v>
+        <v>45424.1287</v>
       </c>
       <c r="G280" t="n">
-        <v>48.62816666666667</v>
+        <v>48.63733333333334</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10228,7 +10258,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10250,10 +10284,10 @@
         <v>48.45</v>
       </c>
       <c r="F281" t="n">
-        <v>54160.5522</v>
+        <v>75362.1281</v>
       </c>
       <c r="G281" t="n">
-        <v>48.62033333333333</v>
+        <v>48.62816666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10263,7 +10297,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10273,22 +10311,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>48.88</v>
+        <v>48.45</v>
       </c>
       <c r="C282" t="n">
-        <v>48.88</v>
+        <v>48.45</v>
       </c>
       <c r="D282" t="n">
-        <v>48.88</v>
+        <v>48.45</v>
       </c>
       <c r="E282" t="n">
-        <v>48.88</v>
+        <v>48.45</v>
       </c>
       <c r="F282" t="n">
-        <v>1986.0973</v>
+        <v>54160.5522</v>
       </c>
       <c r="G282" t="n">
-        <v>48.62133333333334</v>
+        <v>48.62033333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10298,7 +10336,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10308,22 +10350,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>49</v>
+        <v>48.88</v>
       </c>
       <c r="C283" t="n">
-        <v>48.9</v>
+        <v>48.88</v>
       </c>
       <c r="D283" t="n">
-        <v>49.1</v>
+        <v>48.88</v>
       </c>
       <c r="E283" t="n">
-        <v>48.9</v>
+        <v>48.88</v>
       </c>
       <c r="F283" t="n">
-        <v>6760.9943</v>
+        <v>1986.0973</v>
       </c>
       <c r="G283" t="n">
-        <v>48.61966666666667</v>
+        <v>48.62133333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10333,7 +10375,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10343,22 +10389,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>48.99</v>
+        <v>49</v>
       </c>
       <c r="C284" t="n">
-        <v>48.99</v>
+        <v>48.9</v>
       </c>
       <c r="D284" t="n">
-        <v>48.99</v>
+        <v>49.1</v>
       </c>
       <c r="E284" t="n">
-        <v>48.99</v>
+        <v>48.9</v>
       </c>
       <c r="F284" t="n">
-        <v>15.5297</v>
+        <v>6760.9943</v>
       </c>
       <c r="G284" t="n">
-        <v>48.6195</v>
+        <v>48.61966666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10368,7 +10414,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10378,22 +10428,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>48.8</v>
+        <v>48.99</v>
       </c>
       <c r="C285" t="n">
-        <v>48.8</v>
+        <v>48.99</v>
       </c>
       <c r="D285" t="n">
-        <v>48.8</v>
+        <v>48.99</v>
       </c>
       <c r="E285" t="n">
-        <v>48.8</v>
+        <v>48.99</v>
       </c>
       <c r="F285" t="n">
-        <v>12.2951</v>
+        <v>15.5297</v>
       </c>
       <c r="G285" t="n">
-        <v>48.61366666666667</v>
+        <v>48.6195</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10403,7 +10453,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10413,22 +10467,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C286" t="n">
-        <v>49.02</v>
+        <v>48.8</v>
       </c>
       <c r="D286" t="n">
-        <v>49.02</v>
+        <v>48.8</v>
       </c>
       <c r="E286" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="F286" t="n">
-        <v>1044.5345</v>
+        <v>12.2951</v>
       </c>
       <c r="G286" t="n">
-        <v>48.614</v>
+        <v>48.61366666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10438,7 +10492,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10448,22 +10506,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>49.45</v>
+        <v>49</v>
       </c>
       <c r="C287" t="n">
-        <v>49.48</v>
+        <v>49.02</v>
       </c>
       <c r="D287" t="n">
-        <v>49.48</v>
+        <v>49.02</v>
       </c>
       <c r="E287" t="n">
-        <v>49.45</v>
+        <v>49</v>
       </c>
       <c r="F287" t="n">
-        <v>86784.21490000001</v>
+        <v>1044.5345</v>
       </c>
       <c r="G287" t="n">
-        <v>48.622</v>
+        <v>48.614</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10473,7 +10531,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10483,22 +10545,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>49.6</v>
+        <v>49.45</v>
       </c>
       <c r="C288" t="n">
-        <v>49.6</v>
+        <v>49.48</v>
       </c>
       <c r="D288" t="n">
-        <v>49.6</v>
+        <v>49.48</v>
       </c>
       <c r="E288" t="n">
-        <v>49.6</v>
+        <v>49.45</v>
       </c>
       <c r="F288" t="n">
-        <v>42.3388</v>
+        <v>86784.21490000001</v>
       </c>
       <c r="G288" t="n">
-        <v>48.635</v>
+        <v>48.622</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10508,7 +10570,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10518,22 +10584,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>49.81</v>
+        <v>49.6</v>
       </c>
       <c r="C289" t="n">
-        <v>49.96</v>
+        <v>49.6</v>
       </c>
       <c r="D289" t="n">
-        <v>49.96</v>
+        <v>49.6</v>
       </c>
       <c r="E289" t="n">
-        <v>49.81</v>
+        <v>49.6</v>
       </c>
       <c r="F289" t="n">
-        <v>50000</v>
+        <v>42.3388</v>
       </c>
       <c r="G289" t="n">
-        <v>48.654</v>
+        <v>48.635</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10543,7 +10609,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10553,22 +10623,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>49.9</v>
+        <v>49.81</v>
       </c>
       <c r="C290" t="n">
-        <v>49.8</v>
+        <v>49.96</v>
       </c>
       <c r="D290" t="n">
-        <v>49.9</v>
+        <v>49.96</v>
       </c>
       <c r="E290" t="n">
-        <v>49.8</v>
+        <v>49.81</v>
       </c>
       <c r="F290" t="n">
-        <v>1642.3781</v>
+        <v>50000</v>
       </c>
       <c r="G290" t="n">
-        <v>48.671</v>
+        <v>48.654</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10578,7 +10648,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10588,32 +10662,36 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>50.01</v>
+        <v>49.9</v>
       </c>
       <c r="C291" t="n">
-        <v>49.75</v>
+        <v>49.8</v>
       </c>
       <c r="D291" t="n">
-        <v>50.01</v>
+        <v>49.9</v>
       </c>
       <c r="E291" t="n">
-        <v>49.75</v>
+        <v>49.8</v>
       </c>
       <c r="F291" t="n">
-        <v>167909.3394</v>
+        <v>1642.3781</v>
       </c>
       <c r="G291" t="n">
-        <v>48.68716666666666</v>
+        <v>48.671</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10623,22 +10701,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="C292" t="n">
         <v>49.75</v>
       </c>
-      <c r="C292" t="n">
-        <v>49.62</v>
-      </c>
       <c r="D292" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="E292" t="n">
         <v>49.75</v>
       </c>
-      <c r="E292" t="n">
-        <v>49.62</v>
-      </c>
       <c r="F292" t="n">
-        <v>19087.1814</v>
+        <v>167909.3394</v>
       </c>
       <c r="G292" t="n">
-        <v>48.70233333333332</v>
+        <v>48.68716666666666</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10648,7 +10726,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10658,32 +10740,36 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="C293" t="n">
         <v>49.62</v>
       </c>
-      <c r="C293" t="n">
-        <v>49.57</v>
-      </c>
       <c r="D293" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E293" t="n">
         <v>49.62</v>
       </c>
-      <c r="E293" t="n">
-        <v>49.57</v>
-      </c>
       <c r="F293" t="n">
-        <v>19432.2417</v>
+        <v>19087.1814</v>
       </c>
       <c r="G293" t="n">
-        <v>48.71666666666666</v>
+        <v>48.70233333333332</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10693,22 +10779,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>49.66</v>
+        <v>49.62</v>
       </c>
       <c r="C294" t="n">
-        <v>49.66</v>
+        <v>49.57</v>
       </c>
       <c r="D294" t="n">
-        <v>49.66</v>
+        <v>49.62</v>
       </c>
       <c r="E294" t="n">
-        <v>49.66</v>
+        <v>49.57</v>
       </c>
       <c r="F294" t="n">
-        <v>131.8989</v>
+        <v>19432.2417</v>
       </c>
       <c r="G294" t="n">
-        <v>48.73249999999999</v>
+        <v>48.71666666666666</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10718,7 +10804,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10728,57 +10818,59 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>50</v>
+        <v>49.66</v>
       </c>
       <c r="C295" t="n">
-        <v>50</v>
+        <v>49.66</v>
       </c>
       <c r="D295" t="n">
-        <v>50</v>
+        <v>49.66</v>
       </c>
       <c r="E295" t="n">
-        <v>50</v>
+        <v>49.66</v>
       </c>
       <c r="F295" t="n">
-        <v>6372.7624</v>
+        <v>131.8989</v>
       </c>
       <c r="G295" t="n">
-        <v>48.75399999999999</v>
+        <v>48.73249999999999</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>50.66</v>
+        <v>50</v>
       </c>
       <c r="C296" t="n">
-        <v>50.71</v>
+        <v>50</v>
       </c>
       <c r="D296" t="n">
-        <v>50.71</v>
+        <v>50</v>
       </c>
       <c r="E296" t="n">
-        <v>50.66</v>
+        <v>50</v>
       </c>
       <c r="F296" t="n">
-        <v>1058.4485</v>
+        <v>6372.7624</v>
       </c>
       <c r="G296" t="n">
-        <v>48.78733333333332</v>
+        <v>48.75399999999999</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10798,22 +10890,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>50.53</v>
+        <v>50.66</v>
       </c>
       <c r="C297" t="n">
-        <v>50.53</v>
+        <v>50.71</v>
       </c>
       <c r="D297" t="n">
-        <v>50.53</v>
+        <v>50.71</v>
       </c>
       <c r="E297" t="n">
-        <v>50.53</v>
+        <v>50.66</v>
       </c>
       <c r="F297" t="n">
-        <v>46645.1153</v>
+        <v>1058.4485</v>
       </c>
       <c r="G297" t="n">
-        <v>48.81833333333332</v>
+        <v>48.78733333333332</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10836,25 +10928,25 @@
         <v>50.53</v>
       </c>
       <c r="C298" t="n">
-        <v>50.44</v>
+        <v>50.53</v>
       </c>
       <c r="D298" t="n">
         <v>50.53</v>
       </c>
       <c r="E298" t="n">
-        <v>50.44</v>
+        <v>50.53</v>
       </c>
       <c r="F298" t="n">
-        <v>4464.4417</v>
+        <v>46645.1153</v>
       </c>
       <c r="G298" t="n">
-        <v>48.84783333333333</v>
+        <v>48.81833333333332</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -10868,22 +10960,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>50.42</v>
+        <v>50.53</v>
       </c>
       <c r="C299" t="n">
-        <v>50.51</v>
+        <v>50.44</v>
       </c>
       <c r="D299" t="n">
-        <v>50.52</v>
+        <v>50.53</v>
       </c>
       <c r="E299" t="n">
-        <v>50.42</v>
+        <v>50.44</v>
       </c>
       <c r="F299" t="n">
-        <v>12711.2531</v>
+        <v>4464.4417</v>
       </c>
       <c r="G299" t="n">
-        <v>48.88049999999999</v>
+        <v>48.84783333333333</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10903,22 +10995,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>49.96</v>
+        <v>50.42</v>
       </c>
       <c r="C300" t="n">
-        <v>49.86</v>
+        <v>50.51</v>
       </c>
       <c r="D300" t="n">
-        <v>49.96</v>
+        <v>50.52</v>
       </c>
       <c r="E300" t="n">
-        <v>49.86</v>
+        <v>50.42</v>
       </c>
       <c r="F300" t="n">
-        <v>3629.4864</v>
+        <v>12711.2531</v>
       </c>
       <c r="G300" t="n">
-        <v>48.89883333333332</v>
+        <v>48.88049999999999</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10938,22 +11030,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>50.11</v>
+        <v>49.96</v>
       </c>
       <c r="C301" t="n">
-        <v>50.11</v>
+        <v>49.86</v>
       </c>
       <c r="D301" t="n">
-        <v>50.11</v>
+        <v>49.96</v>
       </c>
       <c r="E301" t="n">
-        <v>50.11</v>
+        <v>49.86</v>
       </c>
       <c r="F301" t="n">
-        <v>637.152</v>
+        <v>3629.4864</v>
       </c>
       <c r="G301" t="n">
-        <v>48.92183333333332</v>
+        <v>48.89883333333332</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10973,22 +11065,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>50.02</v>
+        <v>50.11</v>
       </c>
       <c r="C302" t="n">
-        <v>50.02</v>
+        <v>50.11</v>
       </c>
       <c r="D302" t="n">
-        <v>50.02</v>
+        <v>50.11</v>
       </c>
       <c r="E302" t="n">
-        <v>50.02</v>
+        <v>50.11</v>
       </c>
       <c r="F302" t="n">
-        <v>17559.657</v>
+        <v>637.152</v>
       </c>
       <c r="G302" t="n">
-        <v>48.94716666666666</v>
+        <v>48.92183333333332</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11008,22 +11100,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>50.17</v>
+        <v>50.02</v>
       </c>
       <c r="C303" t="n">
-        <v>50.19</v>
+        <v>50.02</v>
       </c>
       <c r="D303" t="n">
-        <v>50.19</v>
+        <v>50.02</v>
       </c>
       <c r="E303" t="n">
-        <v>50.17</v>
+        <v>50.02</v>
       </c>
       <c r="F303" t="n">
-        <v>24803.852</v>
+        <v>17559.657</v>
       </c>
       <c r="G303" t="n">
-        <v>48.97699999999999</v>
+        <v>48.94716666666666</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11043,22 +11135,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>50.21</v>
+        <v>50.17</v>
       </c>
       <c r="C304" t="n">
-        <v>50.27</v>
+        <v>50.19</v>
       </c>
       <c r="D304" t="n">
-        <v>50.28</v>
+        <v>50.19</v>
       </c>
       <c r="E304" t="n">
-        <v>50.21</v>
+        <v>50.17</v>
       </c>
       <c r="F304" t="n">
-        <v>103933.6715</v>
+        <v>24803.852</v>
       </c>
       <c r="G304" t="n">
-        <v>49.00816666666665</v>
+        <v>48.97699999999999</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11078,22 +11170,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>50.32</v>
+        <v>50.21</v>
       </c>
       <c r="C305" t="n">
-        <v>50.32</v>
+        <v>50.27</v>
       </c>
       <c r="D305" t="n">
-        <v>50.32</v>
+        <v>50.28</v>
       </c>
       <c r="E305" t="n">
-        <v>50.32</v>
+        <v>50.21</v>
       </c>
       <c r="F305" t="n">
-        <v>20000</v>
+        <v>103933.6715</v>
       </c>
       <c r="G305" t="n">
-        <v>49.04016666666666</v>
+        <v>49.00816666666665</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11125,10 +11217,10 @@
         <v>50.32</v>
       </c>
       <c r="F306" t="n">
-        <v>2022.4438</v>
+        <v>20000</v>
       </c>
       <c r="G306" t="n">
-        <v>49.06966666666666</v>
+        <v>49.04016666666666</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11148,22 +11240,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>50.48</v>
+        <v>50.32</v>
       </c>
       <c r="C307" t="n">
-        <v>50.48</v>
+        <v>50.32</v>
       </c>
       <c r="D307" t="n">
-        <v>50.48</v>
+        <v>50.32</v>
       </c>
       <c r="E307" t="n">
-        <v>50.48</v>
+        <v>50.32</v>
       </c>
       <c r="F307" t="n">
-        <v>1411.5864</v>
+        <v>2022.4438</v>
       </c>
       <c r="G307" t="n">
-        <v>49.10033333333332</v>
+        <v>49.06966666666666</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11183,22 +11275,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>50.32</v>
+        <v>50.48</v>
       </c>
       <c r="C308" t="n">
-        <v>50.32</v>
+        <v>50.48</v>
       </c>
       <c r="D308" t="n">
-        <v>50.32</v>
+        <v>50.48</v>
       </c>
       <c r="E308" t="n">
-        <v>50.32</v>
+        <v>50.48</v>
       </c>
       <c r="F308" t="n">
-        <v>3133.9172</v>
+        <v>1411.5864</v>
       </c>
       <c r="G308" t="n">
-        <v>49.13283333333333</v>
+        <v>49.10033333333332</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11230,10 +11322,10 @@
         <v>50.32</v>
       </c>
       <c r="F309" t="n">
-        <v>3534.3</v>
+        <v>3133.9172</v>
       </c>
       <c r="G309" t="n">
-        <v>49.1615</v>
+        <v>49.13283333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11265,10 +11357,10 @@
         <v>50.32</v>
       </c>
       <c r="F310" t="n">
-        <v>37.7584</v>
+        <v>3534.3</v>
       </c>
       <c r="G310" t="n">
-        <v>49.18916666666667</v>
+        <v>49.1615</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11300,10 +11392,10 @@
         <v>50.32</v>
       </c>
       <c r="F311" t="n">
-        <v>150.7621</v>
+        <v>37.7584</v>
       </c>
       <c r="G311" t="n">
-        <v>49.21483333333334</v>
+        <v>49.18916666666667</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11323,22 +11415,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>50.45</v>
+        <v>50.32</v>
       </c>
       <c r="C312" t="n">
-        <v>50.42</v>
+        <v>50.32</v>
       </c>
       <c r="D312" t="n">
-        <v>50.67</v>
+        <v>50.32</v>
       </c>
       <c r="E312" t="n">
         <v>50.32</v>
       </c>
       <c r="F312" t="n">
-        <v>94041.3219</v>
+        <v>150.7621</v>
       </c>
       <c r="G312" t="n">
-        <v>49.24216666666667</v>
+        <v>49.21483333333334</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11358,22 +11450,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>50.33</v>
+        <v>50.45</v>
       </c>
       <c r="C313" t="n">
-        <v>50.32</v>
+        <v>50.42</v>
       </c>
       <c r="D313" t="n">
-        <v>50.33</v>
+        <v>50.67</v>
       </c>
       <c r="E313" t="n">
         <v>50.32</v>
       </c>
       <c r="F313" t="n">
-        <v>3266.1106</v>
+        <v>94041.3219</v>
       </c>
       <c r="G313" t="n">
-        <v>49.27050000000001</v>
+        <v>49.24216666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11393,22 +11485,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>50.32</v>
+        <v>50.33</v>
       </c>
       <c r="C314" t="n">
         <v>50.32</v>
       </c>
       <c r="D314" t="n">
-        <v>50.32</v>
+        <v>50.33</v>
       </c>
       <c r="E314" t="n">
         <v>50.32</v>
       </c>
       <c r="F314" t="n">
-        <v>249.4864</v>
+        <v>3266.1106</v>
       </c>
       <c r="G314" t="n">
-        <v>49.29516666666667</v>
+        <v>49.27050000000001</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11428,22 +11520,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>50.7</v>
+        <v>50.32</v>
       </c>
       <c r="C315" t="n">
-        <v>50.88</v>
+        <v>50.32</v>
       </c>
       <c r="D315" t="n">
-        <v>50.88</v>
+        <v>50.32</v>
       </c>
       <c r="E315" t="n">
-        <v>50.7</v>
+        <v>50.32</v>
       </c>
       <c r="F315" t="n">
-        <v>8000</v>
+        <v>249.4864</v>
       </c>
       <c r="G315" t="n">
-        <v>49.33300000000001</v>
+        <v>49.29516666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11463,22 +11555,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>50.91</v>
+        <v>50.7</v>
       </c>
       <c r="C316" t="n">
-        <v>50.85</v>
+        <v>50.88</v>
       </c>
       <c r="D316" t="n">
-        <v>50.91</v>
+        <v>50.88</v>
       </c>
       <c r="E316" t="n">
-        <v>50.85</v>
+        <v>50.7</v>
       </c>
       <c r="F316" t="n">
-        <v>4515.2428</v>
+        <v>8000</v>
       </c>
       <c r="G316" t="n">
-        <v>49.36733333333334</v>
+        <v>49.33300000000001</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11498,22 +11590,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
+        <v>50.91</v>
+      </c>
+      <c r="C317" t="n">
         <v>50.85</v>
       </c>
-      <c r="C317" t="n">
-        <v>50.96</v>
-      </c>
       <c r="D317" t="n">
-        <v>50.96</v>
+        <v>50.91</v>
       </c>
       <c r="E317" t="n">
         <v>50.85</v>
       </c>
       <c r="F317" t="n">
-        <v>7063.8911</v>
+        <v>4515.2428</v>
       </c>
       <c r="G317" t="n">
-        <v>49.40383333333334</v>
+        <v>49.36733333333334</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11533,7 +11625,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>50.96</v>
+        <v>50.85</v>
       </c>
       <c r="C318" t="n">
         <v>50.96</v>
@@ -11542,13 +11634,13 @@
         <v>50.96</v>
       </c>
       <c r="E318" t="n">
-        <v>50.96</v>
+        <v>50.85</v>
       </c>
       <c r="F318" t="n">
-        <v>15080.2143</v>
+        <v>7063.8911</v>
       </c>
       <c r="G318" t="n">
-        <v>49.44450000000001</v>
+        <v>49.40383333333334</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11571,19 +11663,19 @@
         <v>50.96</v>
       </c>
       <c r="C319" t="n">
-        <v>50.86</v>
+        <v>50.96</v>
       </c>
       <c r="D319" t="n">
         <v>50.96</v>
       </c>
       <c r="E319" t="n">
-        <v>50.86</v>
+        <v>50.96</v>
       </c>
       <c r="F319" t="n">
-        <v>35180.2206</v>
+        <v>15080.2143</v>
       </c>
       <c r="G319" t="n">
-        <v>49.47850000000001</v>
+        <v>49.44450000000001</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11603,22 +11695,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>51.08</v>
+        <v>50.96</v>
       </c>
       <c r="C320" t="n">
-        <v>50.98</v>
+        <v>50.86</v>
       </c>
       <c r="D320" t="n">
-        <v>51.08</v>
+        <v>50.96</v>
       </c>
       <c r="E320" t="n">
-        <v>50.98</v>
+        <v>50.86</v>
       </c>
       <c r="F320" t="n">
-        <v>26.987</v>
+        <v>35180.2206</v>
       </c>
       <c r="G320" t="n">
-        <v>49.51700000000001</v>
+        <v>49.47850000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11638,22 +11730,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>50.99</v>
+        <v>51.08</v>
       </c>
       <c r="C321" t="n">
-        <v>50.86</v>
+        <v>50.98</v>
       </c>
       <c r="D321" t="n">
-        <v>50.99</v>
+        <v>51.08</v>
       </c>
       <c r="E321" t="n">
-        <v>50.86</v>
+        <v>50.98</v>
       </c>
       <c r="F321" t="n">
-        <v>22234.8499</v>
+        <v>26.987</v>
       </c>
       <c r="G321" t="n">
-        <v>49.55350000000001</v>
+        <v>49.51700000000001</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11673,28 +11765,28 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="C322" t="n">
         <v>50.86</v>
       </c>
-      <c r="C322" t="n">
-        <v>50.95</v>
-      </c>
       <c r="D322" t="n">
-        <v>50.95</v>
+        <v>50.99</v>
       </c>
       <c r="E322" t="n">
-        <v>50.74</v>
+        <v>50.86</v>
       </c>
       <c r="F322" t="n">
-        <v>19403.738</v>
+        <v>22234.8499</v>
       </c>
       <c r="G322" t="n">
-        <v>49.5915</v>
+        <v>49.55350000000001</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
@@ -11708,22 +11800,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>50.77</v>
+        <v>50.86</v>
       </c>
       <c r="C323" t="n">
-        <v>50.62</v>
+        <v>50.95</v>
       </c>
       <c r="D323" t="n">
-        <v>50.77</v>
+        <v>50.95</v>
       </c>
       <c r="E323" t="n">
-        <v>50.62</v>
+        <v>50.74</v>
       </c>
       <c r="F323" t="n">
-        <v>2021.3384</v>
+        <v>19403.738</v>
       </c>
       <c r="G323" t="n">
-        <v>49.62683333333334</v>
+        <v>49.5915</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11743,28 +11835,28 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>50.57</v>
+        <v>50.77</v>
       </c>
       <c r="C324" t="n">
-        <v>50.7</v>
+        <v>50.62</v>
       </c>
       <c r="D324" t="n">
-        <v>50.71</v>
+        <v>50.77</v>
       </c>
       <c r="E324" t="n">
-        <v>50.57</v>
+        <v>50.62</v>
       </c>
       <c r="F324" t="n">
-        <v>706.105</v>
+        <v>2021.3384</v>
       </c>
       <c r="G324" t="n">
-        <v>49.6635</v>
+        <v>49.62683333333334</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
@@ -11778,22 +11870,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>50.69</v>
+        <v>50.57</v>
       </c>
       <c r="C325" t="n">
-        <v>50.69</v>
+        <v>50.7</v>
       </c>
       <c r="D325" t="n">
-        <v>50.69</v>
+        <v>50.71</v>
       </c>
       <c r="E325" t="n">
-        <v>50.69</v>
+        <v>50.57</v>
       </c>
       <c r="F325" t="n">
-        <v>5047.7482</v>
+        <v>706.105</v>
       </c>
       <c r="G325" t="n">
-        <v>49.70166666666667</v>
+        <v>49.6635</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11825,10 +11917,10 @@
         <v>50.69</v>
       </c>
       <c r="F326" t="n">
-        <v>62.3162</v>
+        <v>5047.7482</v>
       </c>
       <c r="G326" t="n">
-        <v>49.73983333333333</v>
+        <v>49.70166666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11848,22 +11940,22 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>50.56</v>
+        <v>50.69</v>
       </c>
       <c r="C327" t="n">
-        <v>50.62</v>
+        <v>50.69</v>
       </c>
       <c r="D327" t="n">
-        <v>50.64</v>
+        <v>50.69</v>
       </c>
       <c r="E327" t="n">
-        <v>50.49</v>
+        <v>50.69</v>
       </c>
       <c r="F327" t="n">
-        <v>33921.6855</v>
+        <v>62.3162</v>
       </c>
       <c r="G327" t="n">
-        <v>49.7735</v>
+        <v>49.73983333333333</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11883,22 +11975,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="C328" t="n">
         <v>50.62</v>
       </c>
-      <c r="C328" t="n">
-        <v>50.56</v>
-      </c>
       <c r="D328" t="n">
-        <v>50.63</v>
+        <v>50.64</v>
       </c>
       <c r="E328" t="n">
-        <v>50.56</v>
+        <v>50.49</v>
       </c>
       <c r="F328" t="n">
-        <v>128.2662</v>
+        <v>33921.6855</v>
       </c>
       <c r="G328" t="n">
-        <v>49.808</v>
+        <v>49.7735</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11913,6 +12005,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="C329" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D329" t="n">
+        <v>50.63</v>
+      </c>
+      <c r="E329" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="F329" t="n">
+        <v>128.2662</v>
+      </c>
+      <c r="G329" t="n">
+        <v>49.808</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest ADA.xlsx
+++ b/BackTest/2020-01-25 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N397"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-30914.19936389003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-31739.70716389003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-46501.55746389003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-50417.41160546003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-62817.91390546003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-92228.83150546004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-99204.11410546004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-95884.22800546004</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-244989.4011054601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-245541.6694054601</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-290354.3449054601</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-346325.7561219</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-436188.8358219001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-618201.4168219001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-721798.2800351599</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-734936.9442401895</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-734926.9442401895</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-734777.7138401895</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>-680992.3664401895</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-680892.3664401895</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>-767151.3303401895</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>-1281621.187488169</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-1330432.501788169</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5203,15 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5335,15 @@
         <v>-1418878.359288169</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>-1429049.533688169</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5401,15 @@
         <v>-1429249.533688169</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5434,15 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5467,15 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,15 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>-1571202.393988169</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>-1571202.393988169</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5896,15 @@
         <v>-1588351.154088169</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5962,15 @@
         <v>-1588351.154088169</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8484,18 +7810,15 @@
         <v>-1699478.473477859</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,22 +10417,19 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="J304" t="n">
         <v>48.4</v>
       </c>
-      <c r="K304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11368,26 +10454,23 @@
         <v>-1879718.502640399</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="J305" t="n">
         <v>48.4</v>
       </c>
-      <c r="K305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11412,26 +10495,23 @@
         <v>-1879707.502640399</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>48.55</v>
       </c>
       <c r="J306" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="K306" t="n">
         <v>48.4</v>
       </c>
-      <c r="L306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11456,26 +10536,21 @@
         <v>-1887076.702740399</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="K307" t="n">
         <v>48.4</v>
       </c>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11500,26 +10575,23 @@
         <v>-1883858.142140399</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>48.37</v>
       </c>
       <c r="J308" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="K308" t="n">
         <v>48.4</v>
       </c>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11544,26 +10616,21 @@
         <v>-1821381.961440399</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="K309" t="n">
         <v>48.4</v>
       </c>
-      <c r="L309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11588,24 +10655,23 @@
         <v>-1809197.058840399</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="J310" t="n">
         <v>48.4</v>
       </c>
-      <c r="L310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11632,22 +10698,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
         <v>48.4</v>
       </c>
-      <c r="L311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11674,22 +10737,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
         <v>48.4</v>
       </c>
-      <c r="L312" t="inlineStr">
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11716,22 +10776,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
         <v>48.4</v>
       </c>
-      <c r="L313" t="inlineStr">
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11758,22 +10815,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
         <v>48.4</v>
       </c>
-      <c r="L314" t="inlineStr">
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11800,22 +10854,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
         <v>48.4</v>
       </c>
-      <c r="L315" t="inlineStr">
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11842,22 +10893,19 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
         <v>48.4</v>
       </c>
-      <c r="L316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11884,22 +10932,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
         <v>48.4</v>
       </c>
-      <c r="L317" t="inlineStr">
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11926,22 +10971,19 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
         <v>48.4</v>
       </c>
-      <c r="L318" t="inlineStr">
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11968,22 +11010,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
         <v>48.4</v>
       </c>
-      <c r="L319" t="inlineStr">
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12010,22 +11049,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
         <v>48.4</v>
       </c>
-      <c r="L320" t="inlineStr">
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12052,22 +11088,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
         <v>48.4</v>
       </c>
-      <c r="L321" t="inlineStr">
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12094,22 +11127,19 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
         <v>48.4</v>
       </c>
-      <c r="L322" t="inlineStr">
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12136,22 +11166,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
         <v>48.4</v>
       </c>
-      <c r="L323" t="inlineStr">
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12176,24 +11203,23 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J324" t="n">
         <v>48.4</v>
       </c>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12218,24 +11244,23 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
         <v>48.4</v>
       </c>
-      <c r="L325" t="inlineStr">
+      <c r="J325" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12260,26 +11285,23 @@
         <v>-1791849.184641589</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="J326" t="n">
         <v>48.4</v>
       </c>
-      <c r="K326" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12304,26 +11326,23 @@
         <v>-1793195.884641589</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="J327" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="K327" t="n">
         <v>48.4</v>
       </c>
-      <c r="L327" t="inlineStr">
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12348,26 +11367,23 @@
         <v>-1828545.884641589</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>48.49</v>
       </c>
       <c r="J328" t="n">
-        <v>48.49</v>
-      </c>
-      <c r="K328" t="n">
         <v>48.4</v>
       </c>
-      <c r="L328" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12392,26 +11408,23 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>48.31</v>
       </c>
       <c r="J329" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="K329" t="n">
         <v>48.4</v>
       </c>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12436,26 +11449,21 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>48.44</v>
-      </c>
-      <c r="K330" t="n">
         <v>48.4</v>
       </c>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12480,26 +11488,23 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>48.44</v>
       </c>
       <c r="J331" t="n">
-        <v>48.44</v>
-      </c>
-      <c r="K331" t="n">
         <v>48.4</v>
       </c>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12524,26 +11529,23 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="J332" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K332" t="n">
         <v>48.4</v>
       </c>
-      <c r="L332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12568,26 +11570,23 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>48.43</v>
       </c>
       <c r="J333" t="n">
-        <v>48.43</v>
-      </c>
-      <c r="K333" t="n">
         <v>48.4</v>
       </c>
-      <c r="L333" t="inlineStr">
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12612,26 +11611,23 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>48.42</v>
       </c>
       <c r="J334" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="K334" t="n">
         <v>48.4</v>
       </c>
-      <c r="L334" t="inlineStr">
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12656,26 +11652,23 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>48.37</v>
       </c>
       <c r="J335" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="K335" t="n">
         <v>48.4</v>
       </c>
-      <c r="L335" t="inlineStr">
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12700,26 +11693,23 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>48.37</v>
       </c>
       <c r="J336" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="K336" t="n">
         <v>48.4</v>
       </c>
-      <c r="L336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12744,26 +11734,23 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>48.37</v>
       </c>
       <c r="J337" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="K337" t="n">
         <v>48.4</v>
       </c>
-      <c r="L337" t="inlineStr">
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12790,22 +11777,19 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
         <v>48.4</v>
       </c>
-      <c r="L338" t="inlineStr">
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12830,26 +11814,21 @@
         <v>-1991249.115841589</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="K339" t="n">
         <v>48.4</v>
       </c>
-      <c r="L339" t="inlineStr">
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12876,22 +11855,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
         <v>48.4</v>
       </c>
-      <c r="L340" t="inlineStr">
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12916,26 +11892,21 @@
         <v>-1989263.018541589</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="K341" t="n">
         <v>48.4</v>
       </c>
-      <c r="L341" t="inlineStr">
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12960,26 +11931,21 @@
         <v>-1982502.024241589</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>48.88</v>
-      </c>
-      <c r="K342" t="n">
         <v>48.4</v>
       </c>
-      <c r="L342" t="inlineStr">
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13004,26 +11970,21 @@
         <v>-1982486.494541589</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K343" t="n">
         <v>48.4</v>
       </c>
-      <c r="L343" t="inlineStr">
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13050,22 +12011,19 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
         <v>48.4</v>
       </c>
-      <c r="L344" t="inlineStr">
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13092,22 +12050,19 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
         <v>48.4</v>
       </c>
-      <c r="L345" t="inlineStr">
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13134,22 +12089,19 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
         <v>48.4</v>
       </c>
-      <c r="L346" t="inlineStr">
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13176,22 +12128,19 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
         <v>48.4</v>
       </c>
-      <c r="L347" t="inlineStr">
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13218,22 +12167,19 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
         <v>48.4</v>
       </c>
-      <c r="L348" t="inlineStr">
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13260,22 +12206,19 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
         <v>48.4</v>
       </c>
-      <c r="L349" t="inlineStr">
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13302,22 +12245,19 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
         <v>48.4</v>
       </c>
-      <c r="L350" t="inlineStr">
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13344,22 +12284,19 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
         <v>48.4</v>
       </c>
-      <c r="L351" t="inlineStr">
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13386,22 +12323,19 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
         <v>48.4</v>
       </c>
-      <c r="L352" t="inlineStr">
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13428,22 +12362,19 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
         <v>48.4</v>
       </c>
-      <c r="L353" t="inlineStr">
+      <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13470,22 +12401,19 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
         <v>48.4</v>
       </c>
-      <c r="L354" t="inlineStr">
+      <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13512,22 +12440,19 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
         <v>48.4</v>
       </c>
-      <c r="L355" t="inlineStr">
+      <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13554,22 +12479,19 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
         <v>48.4</v>
       </c>
-      <c r="L356" t="inlineStr">
+      <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13596,22 +12518,19 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
         <v>48.4</v>
       </c>
-      <c r="L357" t="inlineStr">
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13638,22 +12557,19 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
         <v>48.4</v>
       </c>
-      <c r="L358" t="inlineStr">
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13680,22 +12596,19 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
         <v>48.4</v>
       </c>
-      <c r="L359" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13722,22 +12635,19 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
         <v>48.4</v>
       </c>
-      <c r="L360" t="inlineStr">
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13764,22 +12674,19 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
         <v>48.4</v>
       </c>
-      <c r="L361" t="inlineStr">
+      <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13806,22 +12713,19 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
         <v>48.4</v>
       </c>
-      <c r="L362" t="inlineStr">
+      <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13848,22 +12752,19 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
         <v>48.4</v>
       </c>
-      <c r="L363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13890,22 +12791,19 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
         <v>48.4</v>
       </c>
-      <c r="L364" t="inlineStr">
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13932,22 +12830,19 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
         <v>48.4</v>
       </c>
-      <c r="L365" t="inlineStr">
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13974,22 +12869,19 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
         <v>48.4</v>
       </c>
-      <c r="L366" t="inlineStr">
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14016,22 +12908,19 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
         <v>48.4</v>
       </c>
-      <c r="L367" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14058,22 +12947,19 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
         <v>48.4</v>
       </c>
-      <c r="L368" t="inlineStr">
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14100,22 +12986,19 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
         <v>48.4</v>
       </c>
-      <c r="L369" t="inlineStr">
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14142,22 +13025,19 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
         <v>48.4</v>
       </c>
-      <c r="L370" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14184,22 +13064,19 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
         <v>48.4</v>
       </c>
-      <c r="L371" t="inlineStr">
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14226,22 +13103,19 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
         <v>48.4</v>
       </c>
-      <c r="L372" t="inlineStr">
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14268,22 +13142,19 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
         <v>48.4</v>
       </c>
-      <c r="L373" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14310,22 +13181,19 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
         <v>48.4</v>
       </c>
-      <c r="L374" t="inlineStr">
+      <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14352,22 +13220,19 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
         <v>48.4</v>
       </c>
-      <c r="L375" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14394,22 +13259,19 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
         <v>48.4</v>
       </c>
-      <c r="L376" t="inlineStr">
+      <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -14436,22 +13298,19 @@
       <c r="H377" t="n">
         <v>0</v>
       </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
         <v>48.4</v>
       </c>
-      <c r="L377" t="inlineStr">
+      <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M377" t="n">
-        <v>1</v>
-      </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14478,22 +13337,19 @@
       <c r="H378" t="n">
         <v>0</v>
       </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
         <v>48.4</v>
       </c>
-      <c r="L378" t="inlineStr">
+      <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M378" t="n">
-        <v>1</v>
-      </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14520,22 +13376,19 @@
       <c r="H379" t="n">
         <v>0</v>
       </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
         <v>48.4</v>
       </c>
-      <c r="L379" t="inlineStr">
+      <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M379" t="n">
-        <v>1</v>
-      </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14562,22 +13415,19 @@
       <c r="H380" t="n">
         <v>0</v>
       </c>
-      <c r="I380" t="n">
-        <v>0</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
         <v>48.4</v>
       </c>
-      <c r="L380" t="inlineStr">
+      <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M380" t="n">
-        <v>1</v>
-      </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -14604,22 +13454,19 @@
       <c r="H381" t="n">
         <v>0</v>
       </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
         <v>48.4</v>
       </c>
-      <c r="L381" t="inlineStr">
+      <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M381" t="n">
-        <v>1</v>
-      </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -14646,22 +13493,19 @@
       <c r="H382" t="n">
         <v>0</v>
       </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
         <v>48.4</v>
       </c>
-      <c r="L382" t="inlineStr">
+      <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M382" t="n">
-        <v>1</v>
-      </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -14688,22 +13532,19 @@
       <c r="H383" t="n">
         <v>0</v>
       </c>
-      <c r="I383" t="n">
-        <v>0</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
         <v>48.4</v>
       </c>
-      <c r="L383" t="inlineStr">
+      <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M383" t="n">
-        <v>1</v>
-      </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -14730,22 +13571,19 @@
       <c r="H384" t="n">
         <v>0</v>
       </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
         <v>48.4</v>
       </c>
-      <c r="L384" t="inlineStr">
+      <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M384" t="n">
-        <v>1</v>
-      </c>
-      <c r="N384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -14772,22 +13610,19 @@
       <c r="H385" t="n">
         <v>0</v>
       </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
         <v>48.4</v>
       </c>
-      <c r="L385" t="inlineStr">
+      <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M385" t="n">
-        <v>1</v>
-      </c>
-      <c r="N385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -14814,22 +13649,19 @@
       <c r="H386" t="n">
         <v>0</v>
       </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
         <v>48.4</v>
       </c>
-      <c r="L386" t="inlineStr">
+      <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -14856,22 +13688,19 @@
       <c r="H387" t="n">
         <v>0</v>
       </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
         <v>48.4</v>
       </c>
-      <c r="L387" t="inlineStr">
+      <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M387" t="n">
-        <v>1</v>
-      </c>
-      <c r="N387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -14898,22 +13727,19 @@
       <c r="H388" t="n">
         <v>0</v>
       </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
         <v>48.4</v>
       </c>
-      <c r="L388" t="inlineStr">
+      <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M388" t="n">
-        <v>1</v>
-      </c>
-      <c r="N388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -14940,22 +13766,19 @@
       <c r="H389" t="n">
         <v>0</v>
       </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
         <v>48.4</v>
       </c>
-      <c r="L389" t="inlineStr">
+      <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M389" t="n">
-        <v>1</v>
-      </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -14982,22 +13805,19 @@
       <c r="H390" t="n">
         <v>0</v>
       </c>
-      <c r="I390" t="n">
-        <v>0</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
         <v>48.4</v>
       </c>
-      <c r="L390" t="inlineStr">
+      <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M390" t="n">
-        <v>1</v>
-      </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -15024,22 +13844,19 @@
       <c r="H391" t="n">
         <v>0</v>
       </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
         <v>48.4</v>
       </c>
-      <c r="L391" t="inlineStr">
+      <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -15066,22 +13883,19 @@
       <c r="H392" t="n">
         <v>0</v>
       </c>
-      <c r="I392" t="n">
-        <v>0</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
         <v>48.4</v>
       </c>
-      <c r="L392" t="inlineStr">
+      <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M392" t="n">
-        <v>1</v>
-      </c>
-      <c r="N392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -15108,22 +13922,19 @@
       <c r="H393" t="n">
         <v>0</v>
       </c>
-      <c r="I393" t="n">
-        <v>0</v>
-      </c>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
         <v>48.4</v>
       </c>
-      <c r="L393" t="inlineStr">
+      <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M393" t="n">
-        <v>1</v>
-      </c>
-      <c r="N393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -15150,22 +13961,19 @@
       <c r="H394" t="n">
         <v>0</v>
       </c>
-      <c r="I394" t="n">
-        <v>0</v>
-      </c>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
         <v>48.4</v>
       </c>
-      <c r="L394" t="inlineStr">
+      <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M394" t="n">
-        <v>1</v>
-      </c>
-      <c r="N394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -15192,22 +14000,19 @@
       <c r="H395" t="n">
         <v>0</v>
       </c>
-      <c r="I395" t="n">
-        <v>0</v>
-      </c>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
         <v>48.4</v>
       </c>
-      <c r="L395" t="inlineStr">
+      <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M395" t="n">
-        <v>1</v>
-      </c>
-      <c r="N395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -15234,22 +14039,19 @@
       <c r="H396" t="n">
         <v>0</v>
       </c>
-      <c r="I396" t="n">
-        <v>0</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
         <v>48.4</v>
       </c>
-      <c r="L396" t="inlineStr">
+      <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M396" t="n">
-        <v>1</v>
-      </c>
-      <c r="N396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -15276,24 +14078,21 @@
       <c r="H397" t="n">
         <v>0</v>
       </c>
-      <c r="I397" t="n">
-        <v>0</v>
-      </c>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
         <v>48.4</v>
       </c>
-      <c r="L397" t="inlineStr">
+      <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M397" t="n">
-        <v>1</v>
-      </c>
-      <c r="N397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ADA.xlsx
+++ b/BackTest/2020-01-25 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30914.19936389003</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-31739.70716389003</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-46501.55746389003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58840.60950546003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50417.41160546003</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-62817.91390546003</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-92228.83150546004</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-99204.11410546004</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-95884.22800546004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-135884.2280054601</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-117612.2280054601</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-244989.4011054601</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-245541.6694054601</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-251740.0808054601</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-290354.3449054601</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-290208.6968054601</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-346325.7561219</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-436188.8358219001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-618201.4168219001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-808347.1119219001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-775309.5939219</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-721798.2800351599</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-715123.8012401897</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-719942.7914401897</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-721385.5640401897</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-653501.7110401897</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-653524.1093401897</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-654076.2736401897</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-654056.1062401896</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-630782.1782401896</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-674417.3671401895</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-773878.4837401895</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-771763.7515401895</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-771763.7515401895</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-771863.7515401895</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-770822.5028401895</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-734936.9442401895</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-734926.9442401895</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-734777.7138401895</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-680986.5968401895</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-680992.3664401895</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-680892.3664401895</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-767151.3303401895</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1136126.16944019</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1281621.187488169</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1330432.501788169</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1387160.820788169</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1418878.359288169</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1429049.533688169</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1429249.533688169</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1431629.423188169</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1571202.393988169</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1571202.393988169</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1588351.154088169</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1588351.154088169</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7645,10 +7645,14 @@
         <v>-1788744.005777859</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="J220" t="n">
+        <v>48.8</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7681,8 +7685,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7724,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7810,7 +7826,7 @@
         <v>-1699478.473477859</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9361,10 +9377,14 @@
         <v>-1747616.253740399</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="J272" t="n">
+        <v>49.04</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9397,8 +9417,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9453,19 @@
         <v>-1750494.254640399</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="J274" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,10 +9494,14 @@
         <v>-1749991.983740399</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="J275" t="n">
+        <v>48.82</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9493,11 +9531,19 @@
         <v>-1749991.983740399</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="J276" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10021,10 +10073,14 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J292" t="n">
+        <v>48.71</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10054,11 +10110,19 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J293" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10151,19 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J294" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,10 +10192,14 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J295" t="n">
+        <v>48.71</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
@@ -10153,11 +10229,19 @@
         <v>-1796901.631740399</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J296" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10270,19 @@
         <v>-1796901.631740399</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="J297" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10311,19 @@
         <v>-1840901.631740399</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="J298" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10352,19 @@
         <v>-1840849.733640399</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="J299" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10396,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10432,19 @@
         <v>-1867739.100040399</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="J301" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10473,19 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J302" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10514,19 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J303" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,15 +10555,19 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>48.4</v>
       </c>
       <c r="J304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+        <v>48.71</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,17 +10596,17 @@
         <v>-1879718.502640399</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>48.4</v>
       </c>
       <c r="J305" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -10495,13 +10637,13 @@
         <v>-1879707.502640399</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>48.55</v>
       </c>
       <c r="J306" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10536,11 +10678,13 @@
         <v>-1887076.702740399</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>48.64</v>
+      </c>
       <c r="J307" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10575,13 +10719,13 @@
         <v>-1883858.142140399</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>48.37</v>
       </c>
       <c r="J308" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10616,11 +10760,13 @@
         <v>-1821381.961440399</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J309" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10655,13 +10801,13 @@
         <v>-1809197.058840399</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>48.66</v>
       </c>
       <c r="J310" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10696,11 +10842,13 @@
         <v>-1809197.058840399</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>48.78</v>
+      </c>
       <c r="J311" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10735,11 +10883,13 @@
         <v>-1829509.883740399</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>48.78</v>
+      </c>
       <c r="J312" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10774,11 +10924,13 @@
         <v>-1824143.786241589</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>48.62</v>
+      </c>
       <c r="J313" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10813,11 +10965,13 @@
         <v>-1840343.786241589</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>48.84</v>
+      </c>
       <c r="J314" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10852,11 +11006,13 @@
         <v>-1838343.786241589</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>48.61</v>
+      </c>
       <c r="J315" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10895,7 +11051,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10930,11 +11086,13 @@
         <v>-1841676.367341589</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>48.77</v>
+      </c>
       <c r="J317" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -10969,11 +11127,13 @@
         <v>-1790412.40964159</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>48.52</v>
+      </c>
       <c r="J318" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11008,11 +11168,13 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>48.82</v>
+      </c>
       <c r="J319" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11047,11 +11209,13 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>48.67</v>
+      </c>
       <c r="J320" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11086,11 +11250,13 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>48.67</v>
+      </c>
       <c r="J321" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11125,11 +11291,13 @@
         <v>-1792755.200141589</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>48.67</v>
+      </c>
       <c r="J322" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11164,11 +11332,13 @@
         <v>-1792755.200141589</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J323" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11203,13 +11373,13 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>48.5</v>
       </c>
       <c r="J324" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11244,13 +11414,13 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>48.4</v>
       </c>
       <c r="J325" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11285,13 +11455,13 @@
         <v>-1791849.184641589</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>48.4</v>
       </c>
       <c r="J326" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11326,13 +11496,13 @@
         <v>-1793195.884641589</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>48.6</v>
       </c>
       <c r="J327" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11367,13 +11537,13 @@
         <v>-1828545.884641589</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>48.49</v>
       </c>
       <c r="J328" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11408,13 +11578,13 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>48.31</v>
       </c>
       <c r="J329" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11449,11 +11619,13 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>48.44</v>
+      </c>
       <c r="J330" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11488,13 +11660,13 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>48.44</v>
       </c>
       <c r="J331" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11529,13 +11701,13 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>48.3</v>
       </c>
       <c r="J332" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11570,13 +11742,13 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>48.43</v>
       </c>
       <c r="J333" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11611,13 +11783,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>48.42</v>
       </c>
       <c r="J334" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11652,13 +11824,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>48.37</v>
       </c>
       <c r="J335" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11693,13 +11865,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>48.37</v>
       </c>
       <c r="J336" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11734,13 +11906,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>48.37</v>
       </c>
       <c r="J337" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11779,7 +11951,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11818,7 +11990,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11857,7 +12029,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11892,11 +12064,13 @@
         <v>-1989263.018541589</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>48.45</v>
+      </c>
       <c r="J341" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11931,11 +12105,13 @@
         <v>-1982502.024241589</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>48.88</v>
+      </c>
       <c r="J342" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11970,11 +12146,13 @@
         <v>-1982486.494541589</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J343" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12009,11 +12187,13 @@
         <v>-1982498.789641589</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>48.99</v>
+      </c>
       <c r="J344" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12048,11 +12228,13 @@
         <v>-1981454.255141589</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J345" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12087,11 +12269,13 @@
         <v>-1894670.040241589</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>49.02</v>
+      </c>
       <c r="J346" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12130,7 +12314,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12169,7 +12353,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12208,7 +12392,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12247,7 +12431,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12286,7 +12470,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12325,7 +12509,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12364,7 +12548,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12403,7 +12587,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12442,7 +12626,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12481,7 +12665,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12520,7 +12704,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12559,7 +12743,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12598,7 +12782,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12637,7 +12821,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12676,7 +12860,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12715,7 +12899,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12754,7 +12938,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12793,7 +12977,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12832,7 +13016,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12871,7 +13055,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12910,7 +13094,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12949,7 +13133,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12988,7 +13172,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13027,7 +13211,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13066,7 +13250,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13105,7 +13289,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13144,7 +13328,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13183,7 +13367,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13222,7 +13406,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13261,7 +13445,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13300,7 +13484,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13339,7 +13523,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13378,7 +13562,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13417,7 +13601,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13456,7 +13640,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13495,7 +13679,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13534,7 +13718,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13573,7 +13757,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13612,7 +13796,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13651,7 +13835,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13690,7 +13874,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13729,7 +13913,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13768,7 +13952,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13807,7 +13991,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13846,7 +14030,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13885,7 +14069,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13924,7 +14108,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13963,7 +14147,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14002,7 +14186,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14041,7 +14225,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14080,7 +14264,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>48.4</v>
+        <v>48.71</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14093,6 +14277,6 @@
       <c r="M397" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ADA.xlsx
+++ b/BackTest/2020-01-25 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58840.60950546003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-92228.83150546004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-99204.11410546004</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-95884.22800546004</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-135884.2280054601</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-117612.2280054601</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-244989.4011054601</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-245541.6694054601</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-251740.0808054601</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-251454.3449054601</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-290354.3449054601</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-290208.6968054601</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-346589.4478054601</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-346325.7561219</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-346288.8358219001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-436188.8358219001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-448201.4168219001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-618201.4168219001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-808347.1119219001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-703338.2084219001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-797464.9939219001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-775309.5939219</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-598589.4488465298</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-618942.8448465298</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-619140.9869465298</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-769140.9869465298</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-769117.5645465298</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-773074.4463465298</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-777104.2670465298</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-729781.9056800697</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-759915.2561800696</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-759884.5119800697</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-759760.3726800696</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-760317.9363800697</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-714046.4106401897</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-719942.7914401897</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-721385.5640401897</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-653501.7110401897</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-653524.1093401897</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-654076.2736401897</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-654056.1062401896</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-630782.1782401896</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-674417.3671401895</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-773878.4837401895</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-771763.7515401895</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-771763.7515401895</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-771863.7515401895</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-770822.5028401895</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-680986.5968401895</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-680992.3664401895</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-680892.3664401895</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1136126.16944019</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -7645,14 +7645,10 @@
         <v>-1788744.005777859</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J220" t="n">
-        <v>48.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7685,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9080,7 +9064,7 @@
         <v>-1729210.971840399</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9113,7 +9097,7 @@
         <v>-1729729.364540399</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9377,14 +9361,10 @@
         <v>-1747616.253740399</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="J272" t="n">
-        <v>49.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9417,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9453,19 +9427,11 @@
         <v>-1750494.254640399</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="J274" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9494,14 +9460,10 @@
         <v>-1749991.983740399</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="J275" t="n">
-        <v>48.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9531,19 +9493,11 @@
         <v>-1749991.983740399</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="J276" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +10021,10 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="J292" t="n">
-        <v>48.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10110,505 +10054,435 @@
         <v>-1776975.379240399</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
         <v>48.71</v>
       </c>
-      <c r="J293" t="n">
+      <c r="C294" t="n">
         <v>48.71</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="D294" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="E294" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1853.9725</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1776975.379240399</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="C295" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="D295" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="E295" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1776975.379240399</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C296" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="D296" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="F296" t="n">
+        <v>19926.2525</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1796901.631740399</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="C297" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="D297" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="E297" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="F297" t="n">
+        <v>59.6647</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1796901.631740399</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="C298" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="D298" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="E298" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="F298" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1840901.631740399</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="C299" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="D299" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="E299" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="F299" t="n">
+        <v>51.8981</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1840849.733640399</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="C300" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="D300" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="E300" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="F300" t="n">
+        <v>7874.5052</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1848724.238840399</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D301" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E301" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>19014.8612</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1867739.100040399</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C302" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D302" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E302" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F302" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1879739.100040399</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J302" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F303" t="n">
+        <v>24520</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1879739.100040399</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J303" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="C294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="D294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="E294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1853.9725</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1776975.379240399</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="J294" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K294" t="inlineStr">
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14857.8302</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1879739.100040399</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J304" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="C295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="D295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="E295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="F295" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1776975.379240399</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="J295" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C296" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="D296" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E296" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="F296" t="n">
-        <v>19926.2525</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1796901.631740399</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="J296" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K296" t="inlineStr">
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C305" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="D305" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="E305" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20.5974</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-1879718.502640399</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J305" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="C297" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="D297" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="E297" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="F297" t="n">
-        <v>59.6647</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1796901.631740399</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="J297" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="C298" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="D298" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="E298" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="F298" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1840901.631740399</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="J298" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="C299" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="D299" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="E299" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="F299" t="n">
-        <v>51.8981</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1840849.733640399</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="J299" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="C300" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="D300" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="E300" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="F300" t="n">
-        <v>7874.5052</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1848724.238840399</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C301" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D301" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E301" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F301" t="n">
-        <v>19014.8612</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1867739.100040399</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="J301" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C302" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D302" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E302" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F302" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1879739.100040399</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J302" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C303" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D303" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E303" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F303" t="n">
-        <v>24520</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1879739.100040399</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J303" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F304" t="n">
-        <v>14857.8302</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1879739.100040399</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J304" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C305" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="D305" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="E305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F305" t="n">
-        <v>20.5974</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-1879718.502640399</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J305" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +10517,7 @@
         <v>48.55</v>
       </c>
       <c r="J306" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10684,7 +10558,7 @@
         <v>48.64</v>
       </c>
       <c r="J307" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10725,7 +10599,7 @@
         <v>48.37</v>
       </c>
       <c r="J308" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10766,7 +10640,7 @@
         <v>48.6</v>
       </c>
       <c r="J309" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10801,13 +10675,11 @@
         <v>-1809197.058840399</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>48.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10842,13 +10714,11 @@
         <v>-1809197.058840399</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>48.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10883,13 +10753,11 @@
         <v>-1829509.883740399</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>48.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10924,13 +10792,11 @@
         <v>-1824143.786241589</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>48.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10965,13 +10831,11 @@
         <v>-1840343.786241589</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>48.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11006,13 +10870,11 @@
         <v>-1838343.786241589</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>48.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11051,7 +10913,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11086,13 +10948,11 @@
         <v>-1841676.367341589</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>48.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11127,13 +10987,11 @@
         <v>-1790412.40964159</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>48.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11168,13 +11026,11 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>48.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11209,13 +11065,11 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>48.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11250,13 +11104,11 @@
         <v>-1792436.760141589</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>48.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11291,13 +11143,11 @@
         <v>-1792755.200141589</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>48.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11332,13 +11182,11 @@
         <v>-1792755.200141589</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
         <v>48.5</v>
-      </c>
-      <c r="J323" t="n">
-        <v>48.71</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11373,13 +11221,11 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
         <v>48.5</v>
-      </c>
-      <c r="J324" t="n">
-        <v>48.71</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11414,13 +11260,11 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>48.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11455,13 +11299,11 @@
         <v>-1791849.184641589</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>48.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11496,13 +11338,11 @@
         <v>-1793195.884641589</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11537,13 +11377,11 @@
         <v>-1828545.884641589</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>48.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11578,13 +11416,11 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>48.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11619,13 +11455,11 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>48.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11660,13 +11494,11 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>48.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11701,13 +11533,11 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>48.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11742,13 +11572,11 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>48.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11783,13 +11611,11 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>48.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11824,13 +11650,11 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>48.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11865,13 +11689,11 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>48.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11906,13 +11728,11 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>48.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11951,7 +11771,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11990,7 +11810,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12029,7 +11849,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12064,13 +11884,11 @@
         <v>-1989263.018541589</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>48.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12105,13 +11923,11 @@
         <v>-1982502.024241589</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>48.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12146,13 +11962,11 @@
         <v>-1982486.494541589</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>48.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12187,13 +12001,11 @@
         <v>-1982498.789641589</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>48.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12228,13 +12040,11 @@
         <v>-1981454.255141589</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>48.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12269,13 +12079,11 @@
         <v>-1894670.040241589</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>49.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12314,7 +12122,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12349,19 +12157,19 @@
         <v>-1844627.701441589</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>48.71</v>
+        <v>48.5</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>1</v>
+        <v>1.025103092783505</v>
       </c>
       <c r="M348" t="inlineStr"/>
     </row>
@@ -12388,17 +12196,11 @@
         <v>-1846270.079541589</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12427,17 +12229,11 @@
         <v>-2014179.418941589</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12466,17 +12262,11 @@
         <v>-2033266.600341589</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12505,17 +12295,11 @@
         <v>-2052698.842041589</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12544,17 +12328,11 @@
         <v>-2052566.943141589</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12583,17 +12361,11 @@
         <v>-2046194.180741589</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12622,17 +12394,11 @@
         <v>-2045135.732241589</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12661,17 +12427,11 @@
         <v>-2091780.847541589</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12700,17 +12460,11 @@
         <v>-2096245.289241589</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12739,17 +12493,11 @@
         <v>-2083534.036141589</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12778,17 +12526,11 @@
         <v>-2087163.522541589</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12817,17 +12559,11 @@
         <v>-2086526.370541589</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12856,17 +12592,11 @@
         <v>-2104086.027541589</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12895,17 +12625,11 @@
         <v>-2079282.17554159</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12934,17 +12658,11 @@
         <v>-1975348.50404159</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12973,17 +12691,11 @@
         <v>-1955348.50404159</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13015,14 +12727,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13054,14 +12760,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13093,14 +12793,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13132,14 +12826,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13171,14 +12859,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13210,14 +12892,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13249,14 +12925,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13288,14 +12958,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13327,14 +12991,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13366,14 +13024,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13405,14 +13057,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13444,14 +13090,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13483,14 +13123,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13522,14 +13156,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13561,14 +13189,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13600,14 +13222,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13639,14 +13255,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13678,14 +13288,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13717,14 +13321,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13756,14 +13354,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13795,14 +13387,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13834,14 +13420,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13873,14 +13453,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13912,14 +13486,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13951,14 +13519,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13990,14 +13552,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14029,14 +13585,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14068,14 +13618,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14107,14 +13651,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14146,14 +13684,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14185,14 +13717,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14224,14 +13750,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14263,20 +13783,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
       <c r="M397" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ADA.xlsx
+++ b/BackTest/2020-01-25 BackTest ADA.xlsx
@@ -451,7 +451,7 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30914.19936389003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-31739.70716389003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-46501.55746389003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58840.60950546003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50417.41160546003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-62817.91390546003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-598589.4488465298</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-618942.8448465298</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-769140.9869465298</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-769117.5645465298</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-773074.4463465298</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-777104.2670465298</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-729781.9056800697</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-719942.7914401897</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-721385.5640401897</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-653501.7110401897</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-653524.1093401897</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-654076.2736401897</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-654056.1062401896</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-630782.1782401896</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-674417.3671401895</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-773878.4837401895</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-734777.7138401895</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-680986.5968401895</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-680992.3664401895</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-767151.3303401895</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-764735.5200401895</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-764699.0569401894</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-794968.5714401895</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1054852.138840189</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1054744.824440189</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1055744.031840189</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1729210.971840399</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1729729.364540399</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10351,14 +10351,10 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J302" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
@@ -10388,1006 +10384,856 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
         <v>48.4</v>
       </c>
-      <c r="J303" t="n">
+      <c r="C304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E304" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14857.8302</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1879739.100040399</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C305" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="D305" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="E305" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20.5974</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-1879718.502640399</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="C306" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="D306" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="E306" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="F306" t="n">
+        <v>11</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-1879707.502640399</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="C307" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="D307" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="E307" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="F307" t="n">
+        <v>7369.2001</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-1887076.702740399</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F308" t="n">
+        <v>3218.5606</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-1883858.142140399</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="C309" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="D309" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="E309" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="F309" t="n">
+        <v>62476.1807</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-1821381.961440399</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="C310" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="D310" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="E310" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="F310" t="n">
+        <v>12184.9026</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-1809197.058840399</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="C311" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="D311" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="E311" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="F311" t="n">
+        <v>5296.7101</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-1809197.058840399</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="C312" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="D312" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="E312" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="F312" t="n">
+        <v>20312.8249</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-1829509.883740399</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="C313" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="D313" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="E313" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="F313" t="n">
+        <v>5366.09749881</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-1824143.786241589</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C314" t="n">
+        <v>48.61</v>
+      </c>
+      <c r="D314" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E314" t="n">
+        <v>48.61</v>
+      </c>
+      <c r="F314" t="n">
+        <v>16200</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-1840343.786241589</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="C315" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="D315" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="E315" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-1838343.786241589</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="C316" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="D316" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="E316" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1404</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-1839747.786241589</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="C317" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="D317" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="E317" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1928.5811</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-1841676.367341589</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="C318" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="D318" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="E318" t="n">
         <v>48.5</v>
       </c>
-      <c r="K303" t="inlineStr">
+      <c r="F318" t="n">
+        <v>51263.9577</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-1790412.40964159</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="C319" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="D319" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="E319" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2024.3505</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-1792436.760141589</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="C320" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="D320" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="E320" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="F320" t="n">
+        <v>70.31319999999999</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-1792436.760141589</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="C321" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="D321" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="E321" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="F321" t="n">
+        <v>91.8133</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-1792436.760141589</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="C322" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D322" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="E322" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>318.44</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-1792755.200141589</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D323" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1261.5316</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-1792755.200141589</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E324" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F324" t="n">
+        <v>639.486</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-1793394.686141589</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C325" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E325" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F325" t="n">
+        <v>9.1236</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-1793394.686141589</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C326" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E326" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1545.5015</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-1791849.184641589</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J326" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C327" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="D327" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E327" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1346.7</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-1793195.884641589</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J327" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="C328" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="D328" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="E328" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F328" t="n">
+        <v>35350</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-1828545.884641589</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="J328" t="n">
         <v>48.4</v>
       </c>
-      <c r="C304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F304" t="n">
-        <v>14857.8302</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1879739.100040399</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J304" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C305" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="D305" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="E305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F305" t="n">
-        <v>20.5974</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-1879718.502640399</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J305" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K305" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="C306" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="D306" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="E306" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="F306" t="n">
-        <v>11</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-1879707.502640399</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="J306" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="C307" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="D307" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="E307" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="F307" t="n">
-        <v>7369.2001</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-1887076.702740399</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="J307" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C308" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E308" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F308" t="n">
-        <v>3218.5606</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-1883858.142140399</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="J308" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="C309" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="D309" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="E309" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="F309" t="n">
-        <v>62476.1807</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-1821381.961440399</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J309" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="C310" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="D310" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="E310" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="F310" t="n">
-        <v>12184.9026</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-1809197.058840399</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="C311" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="D311" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="E311" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="F311" t="n">
-        <v>5296.7101</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-1809197.058840399</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="C312" t="n">
-        <v>48.62</v>
-      </c>
-      <c r="D312" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="E312" t="n">
-        <v>48.62</v>
-      </c>
-      <c r="F312" t="n">
-        <v>20312.8249</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-1829509.883740399</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="C313" t="n">
-        <v>48.84</v>
-      </c>
-      <c r="D313" t="n">
-        <v>48.84</v>
-      </c>
-      <c r="E313" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="F313" t="n">
-        <v>5366.09749881</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-1824143.786241589</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C314" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="D314" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E314" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="F314" t="n">
-        <v>16200</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-1840343.786241589</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="C315" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="D315" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="E315" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="F315" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-1838343.786241589</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="C316" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="D316" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="E316" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1404</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-1839747.786241589</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="C317" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="D317" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="E317" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1928.5811</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-1841676.367341589</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="C318" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="D318" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="E318" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F318" t="n">
-        <v>51263.9577</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-1790412.40964159</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="C319" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="D319" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="E319" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2024.3505</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-1792436.760141589</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="C320" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="D320" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="E320" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="F320" t="n">
-        <v>70.31319999999999</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-1792436.760141589</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="C321" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="D321" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="E321" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="F321" t="n">
-        <v>91.8133</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-1792436.760141589</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="C322" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D322" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="E322" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F322" t="n">
-        <v>318.44</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-1792755.200141589</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C323" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D323" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E323" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1261.5316</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-1792755.200141589</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C324" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D324" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E324" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F324" t="n">
-        <v>639.486</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-1793394.686141589</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C325" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D325" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E325" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F325" t="n">
-        <v>9.1236</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-1793394.686141589</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C326" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D326" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E326" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1545.5015</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-1791849.184641589</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C327" t="n">
-        <v>48.49</v>
-      </c>
-      <c r="D327" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E327" t="n">
-        <v>48.49</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1346.7</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-1793195.884641589</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>48.36</v>
-      </c>
-      <c r="C328" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="D328" t="n">
-        <v>48.36</v>
-      </c>
-      <c r="E328" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="F328" t="n">
-        <v>35350</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-1828545.884641589</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +11262,13 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>48.31</v>
+      </c>
       <c r="J329" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11455,11 +11303,13 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>48.44</v>
+      </c>
       <c r="J330" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11494,11 +11344,13 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>48.44</v>
+      </c>
       <c r="J331" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11533,11 +11385,13 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J332" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11572,11 +11426,13 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>48.43</v>
+      </c>
       <c r="J333" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11611,11 +11467,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>48.42</v>
+      </c>
       <c r="J334" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11650,11 +11508,13 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>48.37</v>
+      </c>
       <c r="J335" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11693,7 +11553,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11732,7 +11592,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11771,7 +11631,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11810,7 +11670,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11849,7 +11709,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11888,7 +11748,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11927,7 +11787,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11966,7 +11826,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12005,7 +11865,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12044,7 +11904,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12083,7 +11943,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12122,7 +11982,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12157,19 +12017,19 @@
         <v>-1844627.701441589</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>1.025103092783505</v>
+        <v>1</v>
       </c>
       <c r="M348" t="inlineStr"/>
     </row>
@@ -12196,11 +12056,17 @@
         <v>-1846270.079541589</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12229,11 +12095,17 @@
         <v>-2014179.418941589</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12262,11 +12134,17 @@
         <v>-2033266.600341589</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12295,11 +12173,17 @@
         <v>-2052698.842041589</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +12212,17 @@
         <v>-2052566.943141589</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12361,11 +12251,17 @@
         <v>-2046194.180741589</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12394,11 +12290,17 @@
         <v>-2045135.732241589</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12427,11 +12329,17 @@
         <v>-2091780.847541589</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12460,11 +12368,17 @@
         <v>-2096245.289241589</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12493,11 +12407,17 @@
         <v>-2083534.036141589</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12526,11 +12446,17 @@
         <v>-2087163.522541589</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12559,11 +12485,17 @@
         <v>-2086526.370541589</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12592,11 +12524,17 @@
         <v>-2104086.027541589</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12625,11 +12563,17 @@
         <v>-2079282.17554159</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12658,11 +12602,17 @@
         <v>-1975348.50404159</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12691,11 +12641,17 @@
         <v>-1955348.50404159</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12727,8 +12683,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12760,8 +12722,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12793,8 +12761,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12826,8 +12800,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12859,8 +12839,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12892,8 +12878,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12925,8 +12917,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12958,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12991,8 +12995,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13024,8 +13034,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13057,8 +13073,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13090,8 +13112,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13123,8 +13151,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13156,8 +13190,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13189,8 +13229,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13222,8 +13268,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13255,8 +13307,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13288,8 +13346,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13321,8 +13385,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13354,8 +13424,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13387,8 +13463,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13420,8 +13502,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13453,8 +13541,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13486,8 +13580,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13519,8 +13619,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13552,8 +13658,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13585,8 +13697,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13618,8 +13736,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13651,8 +13775,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13684,8 +13814,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13717,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13750,8 +13892,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13783,8 +13931,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
